--- a/data/digitized_data/occurrence_data/raw_data/HJ-27-occ-entry.xlsx
+++ b/data/digitized_data/occurrence_data/raw_data/HJ-27-occ-entry.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Emma/Desktop/LDP Internship/Harvey_Janszen_Legacy_Project/data/digitized_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Emma/Desktop/LDP Internship/Harvey_Janszen_Legacy_Project/data/digitized_data/occurrence_data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA857B34-A1C4-0442-A764-794B7EB58DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B41D44-76EC-0A43-8AAA-F4BC3AD67CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15560" xr2:uid="{6CD260D0-3248-EC4C-A246-EE521030FA00}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15320" xr2:uid="{6CD260D0-3248-EC4C-A246-EE521030FA00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2021,82 +2021,80 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{4C5623D5-05B7-E844-824D-79860B5E2E43}">
+    <comment ref="W1" authorId="1" shapeId="0" xr:uid="{C6473173-DDA5-D44D-87A7-A892FDDB11D3}">
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">RECOMMENDED
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Definition:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> The number of individuals represented present at the time of the Occurrence.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Examples: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> "1", "25".</t>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">assOcc
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Definition: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">the occurrence numbers of taxa growing with this occurrence. HOWEVER, when entering data, only input data in this column if occurrence was growing with a specimen that was collected. Record the collection number here with HJC to indicate collected specimen
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Example: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>"HJC-2863"</t>
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="1" shapeId="0" xr:uid="{02C4E6F9-C680-9A4E-8FE6-5FE3D6B276B0}">
+    <comment ref="X1" authorId="1" shapeId="0" xr:uid="{1762D171-209D-D947-8555-AFF34FF14DD2}">
       <text>
         <r>
           <rPr>
@@ -2106,11 +2104,23 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">occRemarks
-</t>
-        </r>
-        <r>
-          <rPr>
+          <t xml:space="preserve">assTaxa
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
@@ -2136,100 +2146,100 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Remarks about the occurrence that do not fit into other columns. 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Examples: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>"abundant", "prevalent" , "no unusual travel off" "dominant" "very few" "add", "two large beds", "approx 30% cover"</t>
+          <t xml:space="preserve">associated taxa. Use this field to denote scientific names of associated taxa. HOWEVER, only do this if that associated taxa has a collection number/ is a collected specimen. Otherwise leave blank. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Example: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Isoetes echinospora</t>
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="1" shapeId="0" xr:uid="{1A1EB019-907B-974F-B8A9-28760AC102E7}">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{4C5623D5-05B7-E844-824D-79860B5E2E43}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">recordedBy
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Definition: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">who the occurrence data was recorded by. If more than one individual, separate names with "|"
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">RECOMMENDED
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Definition:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> The number of individuals represented present at the time of the Occurrence.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">Examples: </t>
@@ -2238,14 +2248,14 @@
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>"Harvey Janszen", "Harvey Janszen" | "Pam Janszen"</t>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> "1", "25".</t>
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="1" shapeId="0" xr:uid="{44ACD083-7A9B-E146-B264-32980E3FE423}">
+    <comment ref="AB1" authorId="1" shapeId="0" xr:uid="{02C4E6F9-C680-9A4E-8FE6-5FE3D6B276B0}">
       <text>
         <r>
           <rPr>
@@ -2255,12 +2265,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">idBy
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
+          <t xml:space="preserve">occRemarks
+</t>
+        </r>
+        <r>
+          <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
@@ -2286,25 +2295,56 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">identification by. Who identified the occurrence as a particular taxon? Follow the same formatting for recordedBy field if more than one individual. 
-</t>
+          <t xml:space="preserve">Remarks about the occurrence that do not fit into other columns. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Examples: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>"abundant", "prevalent" , "no unusual travel off" "dominant" "very few" "add", "two large beds", "approx 30% cover"</t>
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="1" shapeId="0" xr:uid="{C6473173-DDA5-D44D-87A7-A892FDDB11D3}">
+    <comment ref="AD1" authorId="1" shapeId="0" xr:uid="{1A1EB019-907B-974F-B8A9-28760AC102E7}">
       <text>
         <r>
           <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">assOcc
-</t>
-        </r>
-        <r>
-          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">recordedBy
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
@@ -2330,41 +2370,41 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">the occurrence numbers of taxa growing with this occurrence. HOWEVER, when entering data, only input data in this column if occurrence was growing with a specimen that was collected. Record the collection number here with HJC to indicate collected specimen
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Example: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>"HJC-2863"</t>
+          <t xml:space="preserve">who the occurrence data was recorded by. If more than one individual, separate names with "|"
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Examples: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>"Harvey Janszen", "Harvey Janszen" | "Pam Janszen"</t>
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="1" shapeId="0" xr:uid="{1762D171-209D-D947-8555-AFF34FF14DD2}">
+    <comment ref="AE1" authorId="1" shapeId="0" xr:uid="{44ACD083-7A9B-E146-B264-32980E3FE423}">
       <text>
         <r>
           <rPr>
@@ -2374,18 +2414,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">assTaxa
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">idBy
 </t>
         </r>
         <r>
@@ -2416,37 +2445,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">associated taxa. Use this field to denote scientific names of associated taxa. HOWEVER, only do this if that associated taxa has a collection number/ is a collected specimen. Otherwise leave blank. 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Example: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Isoetes echinospora</t>
+          <t xml:space="preserve">identification by. Who identified the occurrence as a particular taxon? Follow the same formatting for recordedBy field if more than one individual. 
+</t>
         </r>
       </text>
     </comment>
@@ -2567,12 +2567,6 @@
     <t>idBy</t>
   </si>
   <si>
-    <t>assOcc</t>
-  </si>
-  <si>
-    <t>assTaxa</t>
-  </si>
-  <si>
     <t>present</t>
   </si>
   <si>
@@ -3078,6 +3072,12 @@
   </si>
   <si>
     <t>[island]</t>
+  </si>
+  <si>
+    <t>assColl</t>
+  </si>
+  <si>
+    <t>assCollTaxa</t>
   </si>
 </sst>
 </file>
@@ -3556,10 +3556,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E2B542-A597-DF4D-A726-D9C00BB4087B}">
   <dimension ref="A1:AF64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="W9" sqref="W9"/>
+      <selection pane="bottomLeft" activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3586,58 +3586,58 @@
     <col min="20" max="20" width="11.6640625" style="4" customWidth="1"/>
     <col min="21" max="21" width="19.1640625" style="4" customWidth="1"/>
     <col min="22" max="22" width="11.33203125" style="4" customWidth="1"/>
-    <col min="23" max="23" width="7.5" style="4" customWidth="1"/>
-    <col min="24" max="24" width="11.33203125" style="4" customWidth="1"/>
-    <col min="25" max="25" width="11.1640625" style="4" customWidth="1"/>
-    <col min="26" max="26" width="13" style="4" customWidth="1"/>
-    <col min="27" max="27" width="9.1640625" style="4" customWidth="1"/>
-    <col min="28" max="28" width="14.6640625" style="4" customWidth="1"/>
-    <col min="29" max="29" width="10.83203125" style="4"/>
-    <col min="30" max="30" width="14.33203125" style="4" customWidth="1"/>
-    <col min="31" max="31" width="29.5" style="4" customWidth="1"/>
+    <col min="23" max="23" width="14.33203125" style="4" customWidth="1"/>
+    <col min="24" max="24" width="29.5" style="4" customWidth="1"/>
+    <col min="25" max="25" width="7.5" style="4" customWidth="1"/>
+    <col min="26" max="26" width="11.33203125" style="4" customWidth="1"/>
+    <col min="27" max="27" width="11.1640625" style="4" customWidth="1"/>
+    <col min="28" max="28" width="13" style="4" customWidth="1"/>
+    <col min="29" max="29" width="9.1640625" style="4" customWidth="1"/>
+    <col min="30" max="30" width="14.6640625" style="4" customWidth="1"/>
+    <col min="31" max="31" width="10.83203125" style="4"/>
     <col min="32" max="32" width="70.6640625" style="4" customWidth="1"/>
     <col min="33" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>178</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>4</v>
@@ -3649,10 +3649,10 @@
         <v>2</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>5</v>
@@ -3661,37 +3661,37 @@
         <v>6</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="W1" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA1" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="X1" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC1" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="Z1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="AE1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="AF1" s="3" t="s">
         <v>3</v>
@@ -3708,53 +3708,53 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H2" s="4">
         <v>20040212</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="N2" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="U2"/>
       <c r="V2"/>
-      <c r="X2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE2"/>
+      <c r="X2"/>
+      <c r="Z2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="AF2"/>
     </row>
     <row r="3" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -3768,48 +3768,48 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H3" s="4">
         <v>20040212</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="N3" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="U3"/>
       <c r="V3"/>
-      <c r="AB3" s="4" t="s">
-        <v>20</v>
+      <c r="AD3" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="AF3"/>
     </row>
@@ -3824,43 +3824,43 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H4" s="4">
         <v>20040212</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD4" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB4" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -3874,46 +3874,46 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H5" s="4">
         <v>20040212</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M5" s="4" t="s">
+      <c r="N5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD5" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB5" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="AF5"/>
     </row>
@@ -3928,46 +3928,46 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H6" s="4">
         <v>20040212</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M6" s="4" t="s">
+      <c r="N6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD6" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB6" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="AF6"/>
     </row>
@@ -3982,43 +3982,43 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H7" s="4">
         <v>20040212</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M7" s="4" t="s">
+      <c r="N7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD7" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB7" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -4032,46 +4032,46 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H8" s="4">
         <v>20040212</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M8" s="4" t="s">
+      <c r="N8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD8" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB8" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="AF8"/>
     </row>
@@ -4086,43 +4086,43 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H9" s="4">
         <v>20040212</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M9" s="4" t="s">
+      <c r="N9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD9" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB9" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="AF9"/>
     </row>
@@ -4137,46 +4137,46 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
         <v>42</v>
       </c>
-      <c r="E10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" t="s">
-        <v>44</v>
-      </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H10" s="4">
         <v>20040212</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M10" s="4" t="s">
+      <c r="N10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD10" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB10" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="AF10"/>
     </row>
@@ -4191,47 +4191,47 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H11" s="4">
         <v>20040212</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="N11" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P11"/>
       <c r="Q11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB11" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="AD11" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="AF11"/>
     </row>
@@ -4246,55 +4246,55 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
         <v>47</v>
-      </c>
-      <c r="E12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" t="s">
-        <v>49</v>
       </c>
       <c r="H12" s="4">
         <v>20040212</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M12" s="4" t="s">
+      <c r="N12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA12" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD12" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X12" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y12" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="AB12" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="AF12"/>
     </row>
@@ -4309,51 +4309,51 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s">
         <v>50</v>
-      </c>
-      <c r="E13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" t="s">
-        <v>52</v>
       </c>
       <c r="H13" s="4">
         <v>20040212</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="N13" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P13"/>
       <c r="Q13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA13"/>
-      <c r="AB13" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC13"/>
+      <c r="AD13" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="AF13"/>
     </row>
@@ -4368,47 +4368,47 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H14" s="4">
         <v>20040312</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="N14" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P14"/>
       <c r="Q14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB14" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="AD14" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="AF14"/>
     </row>
@@ -4423,47 +4423,47 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s">
         <v>47</v>
-      </c>
-      <c r="E15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" t="s">
-        <v>49</v>
       </c>
       <c r="H15" s="4">
         <v>20040312</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L15" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="N15" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P15"/>
       <c r="Q15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB15" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="AD15" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="AF15"/>
     </row>
@@ -4478,47 +4478,47 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s">
         <v>50</v>
-      </c>
-      <c r="E16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" t="s">
-        <v>52</v>
       </c>
       <c r="H16" s="4">
         <v>20040312</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="N16" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P16"/>
       <c r="Q16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB16" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="AD16" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="AF16"/>
     </row>
@@ -4533,47 +4533,47 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" t="s">
         <v>55</v>
-      </c>
-      <c r="E17" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" t="s">
-        <v>57</v>
       </c>
       <c r="H17" s="4">
         <v>20040312</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L17" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="N17" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P17"/>
       <c r="Q17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB17" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="AD17" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="AF17"/>
     </row>
@@ -4588,47 +4588,47 @@
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H18" s="4">
         <v>20040312</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L18" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="N18" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P18"/>
       <c r="Q18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB18" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="AD18" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="AF18"/>
     </row>
@@ -4643,47 +4643,47 @@
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H19" s="4">
         <v>20040312</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L19" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="N19" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P19"/>
       <c r="Q19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB19" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="AD19" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="AF19"/>
     </row>
@@ -4698,47 +4698,47 @@
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H20" s="4">
         <v>20040312</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L20" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="N20" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P20"/>
       <c r="Q20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB20" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="AD20" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="AF20"/>
     </row>
@@ -4753,47 +4753,47 @@
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H21" s="4">
         <v>20040312</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L21" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="N21" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P21"/>
       <c r="Q21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB21" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="AD21" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="AF21"/>
     </row>
@@ -4808,47 +4808,47 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H22" s="4">
         <v>20040312</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L22" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="N22" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P22"/>
       <c r="Q22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB22" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="AD22" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="AF22"/>
     </row>
@@ -4863,47 +4863,47 @@
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H23" s="4">
         <v>20040312</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L23" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="N23" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P23"/>
       <c r="Q23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB23" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="AD23" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="AF23"/>
     </row>
@@ -4918,50 +4918,50 @@
         <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E24" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G24" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H24" s="4">
         <v>20040312</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L24" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="N24" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P24"/>
       <c r="Q24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB24" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="AD24" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="AF24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -4975,47 +4975,47 @@
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H25" s="4">
         <v>20040312</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M25" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L25" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="N25" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P25"/>
       <c r="Q25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AB25" s="4" t="s">
-        <v>20</v>
+      <c r="AD25" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="AF25"/>
     </row>
@@ -5030,47 +5030,47 @@
         <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" t="s">
         <v>61</v>
-      </c>
-      <c r="G26" t="s">
-        <v>63</v>
       </c>
       <c r="H26" s="4">
         <v>20040312</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M26" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L26" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="N26" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P26"/>
       <c r="Q26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB26" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="AD26" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="AF26"/>
     </row>
@@ -5085,47 +5085,47 @@
         <v>14</v>
       </c>
       <c r="D27" t="s">
+        <v>147</v>
+      </c>
+      <c r="E27" t="s">
+        <v>148</v>
+      </c>
+      <c r="F27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" t="s">
         <v>149</v>
-      </c>
-      <c r="E27" t="s">
-        <v>150</v>
-      </c>
-      <c r="F27" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27" t="s">
-        <v>151</v>
       </c>
       <c r="H27" s="4">
         <v>20040312</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L27" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="N27" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="P27"/>
       <c r="Q27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB27" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="AD27" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="AF27"/>
     </row>
@@ -5140,49 +5140,49 @@
         <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H28" s="4">
         <v>20040312</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L28" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M28" s="4" t="s">
+      <c r="N28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD28" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="P28" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB28" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="AF28" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:32" ht="51" x14ac:dyDescent="0.2">
@@ -5196,49 +5196,49 @@
         <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H29" s="4">
         <v>20040312</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M29" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L29" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M29" s="4" t="s">
+      <c r="N29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD29" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N29" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="P29" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB29" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="AF29" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:32" ht="51" x14ac:dyDescent="0.2">
@@ -5252,49 +5252,49 @@
         <v>17</v>
       </c>
       <c r="D30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H30" s="4">
         <v>20040312</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M30" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L30" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="N30" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q30" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AB30" s="4" t="s">
-        <v>20</v>
+      <c r="AD30" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="AF30" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="51" x14ac:dyDescent="0.2">
@@ -5308,52 +5308,52 @@
         <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H31" s="4">
         <v>20040312</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M31" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L31" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="N31" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q31" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="Z31" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="AB31" s="4" t="s">
-        <v>20</v>
+        <v>76</v>
+      </c>
+      <c r="AD31" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="AF31" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5367,43 +5367,43 @@
         <v>19</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H32" s="4">
         <v>20040312</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K32" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M32" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L32" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M32" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="N32" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q32" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AB32" s="4" t="s">
-        <v>20</v>
+      <c r="AD32" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5417,43 +5417,43 @@
         <v>20</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H33" s="4">
         <v>20040312</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M33" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L33" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="N33" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q33" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AB33" s="4" t="s">
-        <v>20</v>
+      <c r="AD33" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5467,46 +5467,46 @@
         <v>21</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H34" s="4">
         <v>20040312</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K34" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M34" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L34" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M34" s="4" t="s">
+      <c r="N34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD34" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="N34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O34" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q34" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB34" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5520,46 +5520,46 @@
         <v>22</v>
       </c>
       <c r="D35" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="H35" s="4">
         <v>20040312</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M35" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L35" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M35" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="N35" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q35" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AB35" s="4" t="s">
-        <v>20</v>
+      <c r="AD35" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5573,46 +5573,46 @@
         <v>1</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H36" s="4">
         <v>20040312</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K36" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M36" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L36" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M36" s="4" t="s">
+      <c r="N36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD36" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="N36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O36" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q36" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB36" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5626,43 +5626,43 @@
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E37" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F37" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G37" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H37" s="4">
         <v>20040312</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M37" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L37" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M37" s="4" t="s">
+      <c r="N37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD37" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="N37" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q37" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB37" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5676,43 +5676,43 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F38" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H38" s="4">
         <v>20040312</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K38" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M38" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L38" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M38" s="4" t="s">
+      <c r="N38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD38" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="N38" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q38" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB38" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5726,43 +5726,43 @@
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E39" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F39" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G39" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H39" s="4">
         <v>20040312</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K39" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M39" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L39" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M39" s="4" t="s">
+      <c r="N39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD39" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="N39" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q39" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB39" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5776,43 +5776,43 @@
         <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E40" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F40" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G40" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H40" s="4">
         <v>20040312</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K40" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M40" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L40" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M40" s="4" t="s">
+      <c r="N40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD40" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="N40" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q40" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB40" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5826,43 +5826,43 @@
         <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H41" s="4">
         <v>20040312</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K41" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M41" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L41" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M41" s="4" t="s">
+      <c r="N41" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD41" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="N41" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q41" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB41" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5876,43 +5876,43 @@
         <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E42" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F42" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G42" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H42" s="4">
         <v>20040312</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K42" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M42" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L42" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M42" s="4" t="s">
+      <c r="N42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD42" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="N42" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q42" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB42" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5926,43 +5926,43 @@
         <v>8</v>
       </c>
       <c r="D43" t="s">
+        <v>100</v>
+      </c>
+      <c r="E43" t="s">
+        <v>101</v>
+      </c>
+      <c r="F43" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" t="s">
         <v>102</v>
-      </c>
-      <c r="E43" t="s">
-        <v>103</v>
-      </c>
-      <c r="F43" t="s">
-        <v>27</v>
-      </c>
-      <c r="G43" t="s">
-        <v>104</v>
       </c>
       <c r="H43" s="4">
         <v>20040312</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K43" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M43" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L43" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M43" s="4" t="s">
+      <c r="N43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD43" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="N43" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q43" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB43" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5976,43 +5976,43 @@
         <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E44" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F44" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G44" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H44" s="4">
         <v>20040312</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K44" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M44" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L44" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M44" s="4" t="s">
+      <c r="N44" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD44" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="N44" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q44" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB44" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -6026,43 +6026,43 @@
         <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E45" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F45" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G45" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H45" s="4">
         <v>20040312</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K45" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M45" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L45" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M45" s="4" t="s">
+      <c r="N45" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD45" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="N45" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q45" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB45" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -6076,43 +6076,43 @@
         <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" t="s">
         <v>25</v>
       </c>
-      <c r="F46" t="s">
-        <v>27</v>
-      </c>
       <c r="G46" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H46" s="4">
         <v>20040312</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K46" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M46" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L46" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M46" s="4" t="s">
+      <c r="N46" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD46" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="N46" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q46" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB46" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:32" ht="34" x14ac:dyDescent="0.2">
@@ -6126,52 +6126,52 @@
         <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E47" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F47" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G47" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H47" s="4">
         <v>20040312</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K47" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M47" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L47" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M47" s="4" t="s">
+      <c r="N47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O47" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="P47" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD47" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N47" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O47" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="P47" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q47" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB47" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="AF47" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -6185,46 +6185,46 @@
         <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E48" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F48" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G48" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H48" s="4">
         <v>20040312</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K48" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M48" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L48" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M48" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="N48" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O48" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q48" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AB48" s="4" t="s">
-        <v>20</v>
+      <c r="AD48" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -6238,46 +6238,46 @@
         <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E49" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F49" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G49" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H49" s="4">
         <v>20040312</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K49" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M49" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L49" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M49" s="4" t="s">
+      <c r="N49" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O49" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD49" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="N49" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O49" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q49" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB49" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -6291,46 +6291,46 @@
         <v>15</v>
       </c>
       <c r="D50" t="s">
+        <v>111</v>
+      </c>
+      <c r="E50" t="s">
+        <v>112</v>
+      </c>
+      <c r="F50" t="s">
+        <v>24</v>
+      </c>
+      <c r="G50" t="s">
         <v>113</v>
-      </c>
-      <c r="E50" t="s">
-        <v>114</v>
-      </c>
-      <c r="F50" t="s">
-        <v>26</v>
-      </c>
-      <c r="G50" t="s">
-        <v>115</v>
       </c>
       <c r="H50" s="4">
         <v>20040312</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K50" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M50" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L50" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M50" s="4" t="s">
+      <c r="N50" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O50" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD50" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="N50" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O50" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q50" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB50" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -6344,46 +6344,46 @@
         <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E51" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F51" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G51" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H51" s="4">
         <v>20040312</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K51" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M51" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L51" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M51" s="4" t="s">
+      <c r="N51" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O51" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD51" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="N51" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O51" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q51" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB51" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -6397,46 +6397,46 @@
         <v>17</v>
       </c>
       <c r="D52" t="s">
+        <v>45</v>
+      </c>
+      <c r="E52" t="s">
+        <v>46</v>
+      </c>
+      <c r="F52" t="s">
+        <v>24</v>
+      </c>
+      <c r="G52" t="s">
         <v>47</v>
-      </c>
-      <c r="E52" t="s">
-        <v>48</v>
-      </c>
-      <c r="F52" t="s">
-        <v>26</v>
-      </c>
-      <c r="G52" t="s">
-        <v>49</v>
       </c>
       <c r="H52" s="4">
         <v>20040312</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K52" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M52" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L52" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M52" s="4" t="s">
+      <c r="N52" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O52" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD52" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="N52" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O52" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q52" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB52" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -6450,46 +6450,46 @@
         <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E53" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F53" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G53" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H53" s="4">
         <v>20040312</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K53" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M53" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L53" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M53" s="4" t="s">
+      <c r="N53" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O53" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD53" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="N53" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O53" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q53" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB53" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -6503,46 +6503,46 @@
         <v>19</v>
       </c>
       <c r="D54" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E54" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F54" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G54" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H54" s="4">
         <v>20040312</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K54" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M54" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L54" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M54" s="4" t="s">
+      <c r="N54" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O54" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD54" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="N54" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O54" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q54" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB54" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -6556,46 +6556,46 @@
         <v>20</v>
       </c>
       <c r="D55" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E55" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F55" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G55" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H55" s="4">
         <v>20040312</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K55" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M55" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L55" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M55" s="4" t="s">
+      <c r="N55" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O55" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD55" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="N55" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O55" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q55" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB55" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -6609,46 +6609,46 @@
         <v>21</v>
       </c>
       <c r="D56" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E56" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F56" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G56" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H56" s="4">
         <v>20040312</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K56" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M56" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L56" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M56" s="4" t="s">
+      <c r="N56" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O56" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD56" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="N56" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O56" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q56" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB56" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -6662,46 +6662,46 @@
         <v>23</v>
       </c>
       <c r="D57" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E57" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F57" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G57" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H57" s="4">
         <v>20040312</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K57" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M57" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L57" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M57" s="4" t="s">
+      <c r="N57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O57" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD57" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="N57" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O57" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q57" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB57" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -6715,49 +6715,49 @@
         <v>24</v>
       </c>
       <c r="D58" t="s">
+        <v>121</v>
+      </c>
+      <c r="E58" t="s">
+        <v>122</v>
+      </c>
+      <c r="F58" t="s">
+        <v>24</v>
+      </c>
+      <c r="G58" t="s">
         <v>123</v>
-      </c>
-      <c r="E58" t="s">
-        <v>124</v>
-      </c>
-      <c r="F58" t="s">
-        <v>26</v>
-      </c>
-      <c r="G58" t="s">
-        <v>125</v>
       </c>
       <c r="H58" s="4">
         <v>20040312</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K58" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L58" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M58" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L58" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M58" s="4" t="s">
+      <c r="N58" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O58" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD58" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N58" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O58" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q58" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB58" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="AF58" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59" spans="1:32" ht="34" x14ac:dyDescent="0.2">
@@ -6771,46 +6771,46 @@
         <v>25</v>
       </c>
       <c r="D59" t="s">
+        <v>124</v>
+      </c>
+      <c r="E59" t="s">
+        <v>125</v>
+      </c>
+      <c r="F59" t="s">
+        <v>42</v>
+      </c>
+      <c r="G59" t="s">
         <v>126</v>
-      </c>
-      <c r="E59" t="s">
-        <v>127</v>
-      </c>
-      <c r="F59" t="s">
-        <v>44</v>
-      </c>
-      <c r="G59" t="s">
-        <v>128</v>
       </c>
       <c r="H59" s="4">
         <v>20040312</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K59" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L59" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M59" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L59" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M59" s="4" t="s">
+      <c r="N59" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB59" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD59" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="N59" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q59" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z59" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB59" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -6824,46 +6824,46 @@
         <v>26</v>
       </c>
       <c r="D60" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E60" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F60" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G60" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H60" s="4">
         <v>20040312</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K60" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L60" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M60" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L60" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M60" s="4" t="s">
+      <c r="N60" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O60" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD60" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="N60" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O60" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q60" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB60" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -6877,46 +6877,46 @@
         <v>27</v>
       </c>
       <c r="D61" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E61" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F61" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G61" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H61" s="4">
         <v>20040312</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K61" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M61" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L61" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M61" s="4" t="s">
+      <c r="N61" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O61" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD61" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="N61" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O61" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q61" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB61" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -6930,46 +6930,46 @@
         <v>28</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H62" s="4">
         <v>20040312</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K62" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L62" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M62" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L62" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M62" s="4" t="s">
+      <c r="N62" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O62" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD62" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="N62" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O62" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q62" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB62" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -6983,46 +6983,46 @@
         <v>29</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H63" s="4">
         <v>20040312</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K63" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M63" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L63" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M63" s="4" t="s">
+      <c r="N63" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O63" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD63" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="N63" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O63" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q63" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB63" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -7036,49 +7036,49 @@
         <v>30</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H64" s="4">
         <v>20040312</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K64" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L64" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M64" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L64" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M64" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="N64" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O64" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q64" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="W64" s="4">
+      <c r="Y64" s="4">
         <v>1</v>
       </c>
-      <c r="AB64" s="4" t="s">
-        <v>20</v>
+      <c r="AD64" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/data/digitized_data/occurrence_data/raw_data/HJ-27-occ-entry.xlsx
+++ b/data/digitized_data/occurrence_data/raw_data/HJ-27-occ-entry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Emma/Desktop/LDP Internship/Harvey_Janszen_Legacy_Project/data/digitized_data/occurrence_data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B41D44-76EC-0A43-8AAA-F4BC3AD67CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF32AC0-30B7-3345-8E39-6037AC0339EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15320" xr2:uid="{6CD260D0-3248-EC4C-A246-EE521030FA00}"/>
   </bookViews>
@@ -2972,9 +2972,6 @@
     <t>in shade</t>
   </si>
   <si>
-    <t>vCoodUncM</t>
-  </si>
-  <si>
     <t>Rumex</t>
   </si>
   <si>
@@ -3078,6 +3075,9 @@
   </si>
   <si>
     <t>assCollTaxa</t>
+  </si>
+  <si>
+    <t>vCoordUncM</t>
   </si>
 </sst>
 </file>
@@ -3559,7 +3559,7 @@
     <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="X10" sqref="X10"/>
+      <selection pane="bottomLeft" activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3601,43 +3601,43 @@
   <sheetData>
     <row r="1" spans="1:32" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>176</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>4</v>
@@ -3652,7 +3652,7 @@
         <v>12</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>5</v>
@@ -3664,31 +3664,31 @@
         <v>19</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="W1" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="X1" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="X1" s="3" t="s">
-        <v>178</v>
-      </c>
       <c r="Y1" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z1" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>160</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>20</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AE1" s="2" t="s">
         <v>7</v>
@@ -3732,7 +3732,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>16</v>
@@ -3750,7 +3750,7 @@
         <v>21</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AD2" s="4" t="s">
         <v>18</v>
@@ -3792,7 +3792,7 @@
         <v>14</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>16</v>
@@ -3848,7 +3848,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>16</v>
@@ -3898,7 +3898,7 @@
         <v>14</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>16</v>
@@ -3952,7 +3952,7 @@
         <v>14</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>16</v>
@@ -4006,7 +4006,7 @@
         <v>14</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>16</v>
@@ -4056,7 +4056,7 @@
         <v>14</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>16</v>
@@ -4110,7 +4110,7 @@
         <v>14</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>16</v>
@@ -4161,7 +4161,7 @@
         <v>14</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>16</v>
@@ -4215,7 +4215,7 @@
         <v>14</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>16</v>
@@ -4270,7 +4270,7 @@
         <v>14</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>16</v>
@@ -4282,7 +4282,7 @@
         <v>67</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q12" s="4" t="s">
         <v>11</v>
@@ -4291,7 +4291,7 @@
         <v>71</v>
       </c>
       <c r="AA12" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AD12" s="4" t="s">
         <v>18</v>
@@ -4333,7 +4333,7 @@
         <v>14</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>16</v>
@@ -4392,7 +4392,7 @@
         <v>14</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>16</v>
@@ -4447,7 +4447,7 @@
         <v>14</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>16</v>
@@ -4502,7 +4502,7 @@
         <v>14</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>16</v>
@@ -4557,7 +4557,7 @@
         <v>14</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>16</v>
@@ -4612,7 +4612,7 @@
         <v>14</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>16</v>
@@ -4667,7 +4667,7 @@
         <v>14</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>16</v>
@@ -4722,7 +4722,7 @@
         <v>14</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>16</v>
@@ -4777,7 +4777,7 @@
         <v>14</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>16</v>
@@ -4832,7 +4832,7 @@
         <v>14</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>16</v>
@@ -4887,7 +4887,7 @@
         <v>14</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>16</v>
@@ -4921,13 +4921,13 @@
         <v>58</v>
       </c>
       <c r="E24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F24" t="s">
         <v>59</v>
       </c>
       <c r="G24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H24" s="4">
         <v>20040312</v>
@@ -4942,7 +4942,7 @@
         <v>14</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>16</v>
@@ -4999,7 +4999,7 @@
         <v>14</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>16</v>
@@ -5054,7 +5054,7 @@
         <v>14</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>16</v>
@@ -5085,16 +5085,16 @@
         <v>14</v>
       </c>
       <c r="D27" t="s">
+        <v>146</v>
+      </c>
+      <c r="E27" t="s">
         <v>147</v>
-      </c>
-      <c r="E27" t="s">
-        <v>148</v>
       </c>
       <c r="F27" t="s">
         <v>25</v>
       </c>
       <c r="G27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H27" s="4">
         <v>20040312</v>
@@ -5109,7 +5109,7 @@
         <v>14</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M27" s="4" t="s">
         <v>16</v>
@@ -5118,7 +5118,7 @@
         <v>8</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P27"/>
       <c r="Q27" s="4" t="s">
@@ -5164,7 +5164,7 @@
         <v>14</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M28" s="4" t="s">
         <v>16</v>
@@ -5182,7 +5182,7 @@
         <v>18</v>
       </c>
       <c r="AF28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:32" ht="51" x14ac:dyDescent="0.2">
@@ -5220,7 +5220,7 @@
         <v>14</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M29" s="4" t="s">
         <v>16</v>
@@ -5238,7 +5238,7 @@
         <v>18</v>
       </c>
       <c r="AF29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:32" ht="51" x14ac:dyDescent="0.2">
@@ -5276,7 +5276,7 @@
         <v>14</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M30" s="4" t="s">
         <v>16</v>
@@ -5294,7 +5294,7 @@
         <v>18</v>
       </c>
       <c r="AF30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="51" x14ac:dyDescent="0.2">
@@ -5332,7 +5332,7 @@
         <v>14</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M31" s="4" t="s">
         <v>16</v>
@@ -5353,7 +5353,7 @@
         <v>18</v>
       </c>
       <c r="AF31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5391,7 +5391,7 @@
         <v>14</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M32" s="4" t="s">
         <v>16</v>
@@ -5441,7 +5441,7 @@
         <v>14</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M33" s="4" t="s">
         <v>16</v>
@@ -5491,7 +5491,7 @@
         <v>14</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M34" s="4" t="s">
         <v>16</v>
@@ -5544,7 +5544,7 @@
         <v>14</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M35" s="4" t="s">
         <v>16</v>
@@ -5597,7 +5597,7 @@
         <v>14</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M36" s="4" t="s">
         <v>16</v>
@@ -5650,7 +5650,7 @@
         <v>14</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M37" s="4" t="s">
         <v>16</v>
@@ -5700,7 +5700,7 @@
         <v>14</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M38" s="4" t="s">
         <v>16</v>
@@ -5750,7 +5750,7 @@
         <v>14</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M39" s="4" t="s">
         <v>16</v>
@@ -5800,7 +5800,7 @@
         <v>14</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M40" s="4" t="s">
         <v>16</v>
@@ -5850,7 +5850,7 @@
         <v>14</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M41" s="4" t="s">
         <v>16</v>
@@ -5900,7 +5900,7 @@
         <v>14</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M42" s="4" t="s">
         <v>16</v>
@@ -5950,7 +5950,7 @@
         <v>14</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M43" s="4" t="s">
         <v>16</v>
@@ -6000,7 +6000,7 @@
         <v>14</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M44" s="4" t="s">
         <v>16</v>
@@ -6050,7 +6050,7 @@
         <v>14</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M45" s="4" t="s">
         <v>16</v>
@@ -6100,7 +6100,7 @@
         <v>14</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M46" s="4" t="s">
         <v>16</v>
@@ -6150,7 +6150,7 @@
         <v>14</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M47" s="4" t="s">
         <v>16</v>
@@ -6159,7 +6159,7 @@
         <v>8</v>
       </c>
       <c r="O47" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P47" s="4" t="s">
         <v>130</v>
@@ -6171,7 +6171,7 @@
         <v>18</v>
       </c>
       <c r="AF47" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="48" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -6209,7 +6209,7 @@
         <v>14</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M48" s="4" t="s">
         <v>16</v>
@@ -6262,7 +6262,7 @@
         <v>14</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M49" s="4" t="s">
         <v>16</v>
@@ -6315,7 +6315,7 @@
         <v>14</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M50" s="4" t="s">
         <v>16</v>
@@ -6368,7 +6368,7 @@
         <v>14</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M51" s="4" t="s">
         <v>16</v>
@@ -6421,7 +6421,7 @@
         <v>14</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M52" s="4" t="s">
         <v>16</v>
@@ -6474,7 +6474,7 @@
         <v>14</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M53" s="4" t="s">
         <v>16</v>
@@ -6527,7 +6527,7 @@
         <v>14</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M54" s="4" t="s">
         <v>16</v>
@@ -6580,7 +6580,7 @@
         <v>14</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M55" s="4" t="s">
         <v>16</v>
@@ -6633,7 +6633,7 @@
         <v>14</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M56" s="4" t="s">
         <v>16</v>
@@ -6686,7 +6686,7 @@
         <v>14</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M57" s="4" t="s">
         <v>16</v>
@@ -6739,7 +6739,7 @@
         <v>14</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M58" s="4" t="s">
         <v>16</v>
@@ -6757,7 +6757,7 @@
         <v>18</v>
       </c>
       <c r="AF58" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="59" spans="1:32" ht="34" x14ac:dyDescent="0.2">
@@ -6795,7 +6795,7 @@
         <v>14</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M59" s="4" t="s">
         <v>16</v>
@@ -6848,7 +6848,7 @@
         <v>14</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M60" s="4" t="s">
         <v>16</v>
@@ -6901,7 +6901,7 @@
         <v>14</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M61" s="4" t="s">
         <v>16</v>
@@ -6954,7 +6954,7 @@
         <v>14</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M62" s="4" t="s">
         <v>16</v>
@@ -7007,7 +7007,7 @@
         <v>14</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M63" s="4" t="s">
         <v>16</v>
@@ -7036,16 +7036,16 @@
         <v>30</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H64" s="4">
         <v>20040312</v>
@@ -7060,7 +7060,7 @@
         <v>14</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M64" s="4" t="s">
         <v>16</v>

--- a/data/digitized_data/occurrence_data/raw_data/HJ-27-occ-entry.xlsx
+++ b/data/digitized_data/occurrence_data/raw_data/HJ-27-occ-entry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Emma/Desktop/LDP Internship/Harvey_Janszen_Legacy_Project/data/digitized_data/occurrence_data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF32AC0-30B7-3345-8E39-6037AC0339EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD33E8E-9A80-134D-8888-33088492533E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15320" xr2:uid="{6CD260D0-3248-EC4C-A246-EE521030FA00}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="pageNum" comment="page number of field journal (each side of a page as a new number so the front and back of the first page would be 1, and 2 respectively">Sheet1!$B$1</definedName>
+    <definedName name="pageNum" comment="page number of field journal (each side of a page as a new number so the front and back of the first page would be 1, and 2 respectively">Sheet1!$A$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,77 +41,95 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>Emma Menchions</author>
     <author>Kyle Braak</author>
-    <author>Emma Menchions</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{2D7B254B-DE0F-024D-A2E0-578BD35D534F}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{732410AC-6B8A-5248-AE77-A2B0B842646A}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">archiveID (REQUIRED)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Definition:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">  The number associated with the field journal representing a unique item in the archive, with a dash between "HJ" and the number
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Example: HJ-27</t>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">pageNum (REQURIED)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Definition: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Page number of field journal. Each side of a page is a new number 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Example</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>: front and back side of first page are numbers 1 and 2 respectively</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="1" shapeId="0" xr:uid="{732410AC-6B8A-5248-AE77-A2B0B842646A}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{11A953EE-CA77-6243-A02C-9C294653F884}">
       <text>
         <r>
           <rPr>
@@ -121,21 +139,23 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">pageNum (REQURIED)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
+          <t xml:space="preserve">numPage (REQUIRED)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
@@ -161,41 +181,41 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Page number of field journal. Each side of a page is a new number 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Example</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>: front and back side of first page are numbers 1 and 2 respectively</t>
+          <t xml:space="preserve">the number of the observation on a given page (in order).
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Example: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The first species name/ observation on the page excluding collected observations on the page = 1. Alternatively it can refer to observations of associated taxa in collected specimen notes. </t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{11A953EE-CA77-6243-A02C-9C294653F884}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{0607B1B7-AD65-A242-866D-BB8514ECBF49}">
       <text>
         <r>
           <rPr>
@@ -205,7 +225,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">numPage (REQUIRED)
+          <t xml:space="preserve">vName (REQUIRED)
 </t>
         </r>
         <r>
@@ -247,7 +267,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">the number of the observation on a given page (in order).
+          <t xml:space="preserve">the verbatim name written i the field journal. Might be an abbreviation or the full name 
 </t>
         </r>
         <r>
@@ -274,14 +294,36 @@
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">The first species name/ observation on the page excluding collected observations on the page = 1. Alternatively it can refer to observations of associated taxa in collected specimen notes. </t>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Stel med, Elodea densa
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{0607B1B7-AD65-A242-866D-BB8514ECBF49}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{4A57CE0F-C7AD-8648-8980-8A0AED1DD85B}">
       <text>
         <r>
           <rPr>
@@ -291,49 +333,75 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">vName (REQUIRED)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Definition: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">the verbatim name written i the field journal. Might be an abbreviation or the full name 
+          <t>vSciName (REQUIRED)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Defintiion: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">your estimation of what the verbatim scientific taxon name is based on the vName. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Can just be a genus or family name if not confident in deciphering specific epiphet or it is not provided. Might be a repeat of the vName field if it was not an abbreviation.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
         <r>
@@ -360,36 +428,14 @@
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Stel med, Elodea densa
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Stellaria media, Elodea densa</t>
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{4A57CE0F-C7AD-8648-8980-8A0AED1DD85B}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{EB88FD54-CD0D-B441-B496-B95F4FC4D73F}">
       <text>
         <r>
           <rPr>
@@ -399,75 +445,89 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>vSciName (REQUIRED)</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Defintiion: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">your estimation of what the verbatim scientific taxon name is based on the vName. </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Can just be a genus or family name if not confident in deciphering specific epiphet or it is not provided. Might be a repeat of the vName field if it was not an abbreviation.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">Conf (REQUIRED)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Definition: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">your level of confidence in assigning a full taxon name to the abbreviation/ fully written name that is hard to decipher
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">"l" = low confidence and should be checked over
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">"m" = medium confidence and should be checked over if there is time but not prioritized
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">"h" = high confidence and likely does not need to be checked
 </t>
         </r>
         <r>
@@ -497,11 +557,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Stellaria media, Elodea densa</t>
+          <t>m</t>
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="1" shapeId="0" xr:uid="{EB88FD54-CD0D-B441-B496-B95F4FC4D73F}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{672A0EBE-9433-A94E-BED2-D955348ABF3F}">
       <text>
         <r>
           <rPr>
@@ -511,7 +571,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Conf (REQUIRED)
+          <t xml:space="preserve">sciName (REQUIRED)
 </t>
         </r>
         <r>
@@ -553,81 +613,62 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">your level of confidence in assigning a full taxon name to the abbreviation/ fully written name that is hard to decipher
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">"l" = low confidence and should be checked over
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">"m" = medium confidence and should be checked over if there is time but not prioritized
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">"h" = high confidence and likely does not need to be checked
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Example: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>m</t>
+          <t xml:space="preserve">up to date taxon name based on iNaturalist definitions. If the verbatim scientific name has been updated to a new name, record this here. Alternatively if there is no change, copy the verbatim name to this column. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Example: "</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Osmorhiza berteroi" (updated from vSciName of Osmorhiza chilensis</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="1" shapeId="0" xr:uid="{672A0EBE-9433-A94E-BED2-D955348ABF3F}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{7B2C3724-E16F-4E44-BBEB-4623A744B7BD}">
       <text>
         <r>
           <rPr>
@@ -637,7 +678,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">sciName (REQUIRED)
+          <t xml:space="preserve">date (REQUIRED)
 </t>
         </r>
         <r>
@@ -679,62 +720,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">up to date taxon name based on iNaturalist definitions. If the verbatim scientific name has been updated to a new name, record this here. Alternatively if there is no change, copy the verbatim name to this column. 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Example: "</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Osmorhiza berteroi" (updated from vSciName of Osmorhiza chilensis</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
+          <t>occurrence observation date. Entered in YYYYMMDD format. If none can be associated with an occurrence, do not enter the occurrence and skip to the next observation with a date</t>
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="1" shapeId="0" xr:uid="{7B2C3724-E16F-4E44-BBEB-4623A744B7BD}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{E5551A57-131E-2E4A-BE34-80094E93E54E}">
       <text>
         <r>
           <rPr>
@@ -744,7 +734,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">date (REQUIRED)
+          <t xml:space="preserve">locality (REQUIRED)
 </t>
         </r>
         <r>
@@ -786,11 +776,81 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>occurrence observation date. Entered in YYYYMMDD format. If none can be associated with an occurrence, do not enter the occurrence and skip to the next observation with a date</t>
+          <t xml:space="preserve">string of letters indicating a specific location. Does not contain country, province, county/ municipality information but includes the name of an island, town, local landmark, road etc.Try to spell out abbreciations for Rd, Mt.  
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Example: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Mount Sutil, Galiano Island
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">NOT 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mount Sutil, Galiano Island, Southern Gulf Islands, British Columbia, Canada (this is okay to do but not necessary)</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="1" shapeId="0" xr:uid="{E5551A57-131E-2E4A-BE34-80094E93E54E}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{91A5A8D8-F682-6D4D-B2DC-D0D01A848E3A}">
       <text>
         <r>
           <rPr>
@@ -800,7 +860,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">locality (REQUIRED)
+          <t xml:space="preserve">country (REQUIRED) 
 </t>
         </r>
         <r>
@@ -842,7 +902,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">string of letters indicating a specific location. Does not contain country, province, county/ municipality information but includes the name of an island, town, local landmark, road etc.Try to spell out abbreciations for Rd, Mt.  
+          <t xml:space="preserve">country of collection
 </t>
         </r>
         <r>
@@ -872,51 +932,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Mount Sutil, Galiano Island
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">NOT 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Mount Sutil, Galiano Island, Southern Gulf Islands, British Columbia, Canada (this is okay to do but not necessary)</t>
+          <t>either United States or Canada</t>
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{91A5A8D8-F682-6D4D-B2DC-D0D01A848E3A}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{EBD3CD19-9BFE-5B48-80F1-5C82A7D1F51C}">
       <text>
         <r>
           <rPr>
@@ -926,7 +946,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">country (REQUIRED) 
+          <t xml:space="preserve">stateProvince (REQUIRED)
 </t>
         </r>
         <r>
@@ -968,7 +988,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">country of collection
+          <t xml:space="preserve">province or state occurrence was observed in 
 </t>
         </r>
         <r>
@@ -998,11 +1018,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>either United States or Canada</t>
+          <t>British Columbia or Washington</t>
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{EBD3CD19-9BFE-5B48-80F1-5C82A7D1F51C}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{30FD4B1D-23D7-1145-B056-E0D6B319A5EB}">
       <text>
         <r>
           <rPr>
@@ -1012,7 +1032,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">stateProvince (REQUIRED)
+          <t xml:space="preserve">island (REQUIRED)
 </t>
         </r>
         <r>
@@ -1054,41 +1074,41 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">province or state occurrence was observed in 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Example: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>British Columbia or Washington</t>
+          <t xml:space="preserve">island on which the occurrence was observed
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Examples: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Vancouver Island, Saltspring, Galiano, Texada</t>
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="1" shapeId="0" xr:uid="{30FD4B1D-23D7-1145-B056-E0D6B319A5EB}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{E18F86CF-8911-9A43-A42D-5E0F77F6539D}">
       <text>
         <r>
           <rPr>
@@ -1098,7 +1118,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">island (REQUIRED)
+          <t xml:space="preserve">county (REQUIRED)
 </t>
         </r>
         <r>
@@ -1140,7 +1160,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">island on which the occurrence was observed
+          <t xml:space="preserve">county/ municipality that occurrence was observed in.
 </t>
         </r>
         <r>
@@ -1170,11 +1190,12 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Vancouver Island, Saltspring, Galiano, Texada</t>
+          <t xml:space="preserve">Southern Gulf Islands, Northern Gulf Islands, Victoria, Saanich, Metchosin, Sidney
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="1" shapeId="0" xr:uid="{E18F86CF-8911-9A43-A42D-5E0F77F6539D}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{C0FE8A6D-DEE3-0049-BB7C-C9A696C7AA56}">
       <text>
         <r>
           <rPr>
@@ -1184,84 +1205,83 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">county (REQUIRED)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Definition: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">county/ municipality that occurrence was observed in.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Examples: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Southern Gulf Islands, Northern Gulf Islands, Victoria, Saanich, Metchosin, Sidney
-</t>
+          <t xml:space="preserve">occStaus (REQUIRED)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Definition: occurrence status. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">indicates whether the species was observed to be present or absent
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Example: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">If special note made about specific taxon not being at a given location = "absent". Otherwise = "present" </t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="1" shapeId="0" xr:uid="{C0FE8A6D-DEE3-0049-BB7C-C9A696C7AA56}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{A2F25764-4BE8-0245-85D4-5F505ECE445E}">
       <text>
         <r>
           <rPr>
@@ -1271,83 +1291,64 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">occStaus (REQUIRED)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Definition: occurrence status. </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">indicates whether the species was observed to be present or absent
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Example: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">If special note made about specific taxon not being at a given location = "absent". Otherwise = "present" </t>
+          <t xml:space="preserve">habitat 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Defintion: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>if habitat information provided, place here. This includes whether it is in an aquatic vs terrestrial habitat (aquatic, in lake shoreline), the biogeoclimatic zone, shading conditions (e.g. in shade, shaded, in sun) , relative position at locality (e.g. base vs seep vs ledge), position on habitat objects (e.g. on log)</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="1" shapeId="0" xr:uid="{A2F25764-4BE8-0245-85D4-5F505ECE445E}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{B9586400-66D1-7141-8F4F-DF928AA236E2}">
       <text>
         <r>
           <rPr>
@@ -1357,64 +1358,75 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">habitat 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Defintion: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>if habitat information provided, place here. This includes whether it is in an aquatic vs terrestrial habitat (aquatic, in lake shoreline), the biogeoclimatic zone, shading conditions (e.g. in shade, shaded, in sun) , relative position at locality (e.g. base vs seep vs ledge), position on habitat objects (e.g. on log)</t>
+          <t xml:space="preserve">locationRemarks
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Definition: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Use this column to denote information about plot location or polygon number, or miscellaneous notes that discuss the relative position or the state of the habitat/ site
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Example: poly 20
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="1" shapeId="0" xr:uid="{B9586400-66D1-7141-8F4F-DF928AA236E2}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{C334D07E-4730-1749-B76E-5A26B42DC1C1}">
       <text>
         <r>
           <rPr>
@@ -1424,7 +1436,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">locationRemarks
+          <t xml:space="preserve">vTaxonRank (REQUIRED)
 </t>
         </r>
         <r>
@@ -1466,33 +1478,52 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Use this column to denote information about plot location or polygon number, or miscellaneous notes that discuss the relative position or the state of the habitat/ site
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Example: poly 20
+          <t xml:space="preserve">verbatim taxon rank. The lowest level of taxonomy provided. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Example: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">if specific epiphet in scientific name = "species", alternatively if lowest level is generic name = "genus"
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="1" shapeId="0" xr:uid="{C334D07E-4730-1749-B76E-5A26B42DC1C1}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{CA3A2C45-C583-DA43-877C-3A38B460B025}">
       <text>
         <r>
           <rPr>
@@ -1502,23 +1533,30 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">vTaxonRank (REQUIRED)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
+          <t>vElev</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
@@ -1544,145 +1582,137 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">verbatim taxon rank. The lowest level of taxonomy provided. 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Example: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">if specific epiphet in scientific name = "species", alternatively if lowest level is generic name = "genus"
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
+          <t xml:space="preserve">verbatim elevation. The elevation in meters if provided
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Example</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: 10 </t>
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="1" shapeId="0" xr:uid="{CA3A2C45-C583-DA43-877C-3A38B460B025}">
+    <comment ref="S1" authorId="1" shapeId="0" xr:uid="{9F8D95FB-54D3-F04C-9134-F2DD1CEAD6ED}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>vElev</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Definition: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">verbatim elevation. The elevation in meters if provided
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Example</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">: 10 </t>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">vLat 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Definition:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> verbatim latitude. The geographic latitude in decimal degrees or degrees minutes seconds. Positive values are north of the Equator, negative values are south of it. Legal values lie between -90 and 90, inclusive.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Examples: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> "-41.0983423". If degrees minutes seconds: 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>49 39 12</t>
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{9F8D95FB-54D3-F04C-9134-F2DD1CEAD6ED}">
+    <comment ref="T1" authorId="1" shapeId="0" xr:uid="{A76DD89C-13AB-F048-A935-8FD1A912F16A}">
       <text>
         <r>
           <rPr>
@@ -1692,7 +1722,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">vLat 
+          <t xml:space="preserve">RECOMMENDED
 </t>
         </r>
         <r>
@@ -1714,18 +1744,16 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
+          <t>Definition:</t>
+        </r>
+        <r>
+          <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Definition:</t>
+          <t xml:space="preserve"> </t>
         </r>
         <r>
           <rPr>
@@ -1733,9 +1761,9 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> verbatim latitude. The geographic latitude in decimal degrees or degrees minutes seconds. Positive values are north of the Equator, negative values are south of it. Legal values lie between -90 and 90, inclusive.
-</t>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">verbatim longitude. The geographic longitude in decimal degrees or degrees minutes seconds. </t>
         </r>
         <r>
           <rPr>
@@ -1744,17 +1772,27 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
+          <t xml:space="preserve">Positive values are east of the Greenwich Meridian, negative values are west of it. Legal values lie between -180 and 180, inclusive.
+</t>
+        </r>
+        <r>
+          <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
           <t xml:space="preserve">Examples: </t>
         </r>
         <r>
@@ -1764,115 +1802,85 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> "-41.0983423". If degrees minutes seconds: 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>49 39 12</t>
+          <t xml:space="preserve"> "-121.1761111". If in degrees minutes secons: 124 56 37</t>
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{A76DD89C-13AB-F048-A935-8FD1A912F16A}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{B3BFE285-5D7E-014B-96D5-A3177370E856}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">RECOMMENDED
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Definition:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">verbatim longitude. The geographic longitude in decimal degrees or degrees minutes seconds. </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Positive values are east of the Greenwich Meridian, negative values are west of it. Legal values lie between -180 and 180, inclusive.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Examples: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> "-121.1761111". If in degrees minutes secons: 124 56 37</t>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">vUTM
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Definition: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">if verbatim coordinates in UTM, denote in this column. Separate into 3 strings. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Example: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10U 45689 55678</t>
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="1" shapeId="0" xr:uid="{B3BFE285-5D7E-014B-96D5-A3177370E856}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{C36EAF92-CB2B-8247-A6B4-E6839E892AD6}">
       <text>
         <r>
           <rPr>
@@ -1882,11 +1890,12 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">vUTM
-</t>
-        </r>
-        <r>
-          <rPr>
+          <t xml:space="preserve">vCoordUncertainty
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
@@ -1912,7 +1921,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">if verbatim coordinates in UTM, denote in this column. Separate into 3 strings. 
+          <t xml:space="preserve">denote the verbatim coordinate uncertainty in meters if provided with associated verbatim UTM or degree coordinates 
 </t>
         </r>
         <r>
@@ -1942,26 +1951,24 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>10U 45689 55678</t>
+          <t xml:space="preserve">30 </t>
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="1" shapeId="0" xr:uid="{C36EAF92-CB2B-8247-A6B4-E6839E892AD6}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{C6473173-DDA5-D44D-87A7-A892FDDB11D3}">
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">vCoordUncertainty
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">assOcc
+</t>
+        </r>
+        <r>
+          <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
@@ -1987,7 +1994,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">denote the verbatim coordinate uncertainty in meters if provided with associated verbatim UTM or degree coordinates 
+          <t xml:space="preserve">the occurrence numbers of taxa growing with this occurrence. HOWEVER, when entering data, only input data in this column if occurrence was growing with a specimen that was collected. Record the collection number here with HJC to indicate collected specimen
 </t>
         </r>
         <r>
@@ -2017,24 +2024,37 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">30 </t>
+          <t>"HJC-2863"</t>
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="1" shapeId="0" xr:uid="{C6473173-DDA5-D44D-87A7-A892FDDB11D3}">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{1762D171-209D-D947-8555-AFF34FF14DD2}">
       <text>
         <r>
           <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">assOcc
-</t>
-        </r>
-        <r>
-          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">assTaxa
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
@@ -2060,7 +2080,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">the occurrence numbers of taxa growing with this occurrence. HOWEVER, when entering data, only input data in this column if occurrence was growing with a specimen that was collected. Record the collection number here with HJC to indicate collected specimen
+          <t xml:space="preserve">associated taxa. Use this field to denote scientific names of associated taxa. HOWEVER, only do this if that associated taxa has a collection number/ is a collected specimen. Otherwise leave blank. 
 </t>
         </r>
         <r>
@@ -2090,156 +2110,144 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>"HJC-2863"</t>
+          <t>Isoetes echinospora</t>
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="1" shapeId="0" xr:uid="{1762D171-209D-D947-8555-AFF34FF14DD2}">
+    <comment ref="Y1" authorId="1" shapeId="0" xr:uid="{4C5623D5-05B7-E844-824D-79860B5E2E43}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">assTaxa
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Definition: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">associated taxa. Use this field to denote scientific names of associated taxa. HOWEVER, only do this if that associated taxa has a collection number/ is a collected specimen. Otherwise leave blank. 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Example: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Isoetes echinospora</t>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">RECOMMENDED
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Definition:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> The number of individuals represented present at the time of the Occurrence.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Examples: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> "1", "25".</t>
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{4C5623D5-05B7-E844-824D-79860B5E2E43}">
+    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{02C4E6F9-C680-9A4E-8FE6-5FE3D6B276B0}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">RECOMMENDED
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Definition:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> The number of individuals represented present at the time of the Occurrence.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">occRemarks
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Definition: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Remarks about the occurrence that do not fit into other columns. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">Examples: </t>
@@ -2248,14 +2256,14 @@
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> "1", "25".</t>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>"abundant", "prevalent" , "no unusual travel off" "dominant" "very few" "add", "two large beds", "approx 30% cover"</t>
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="1" shapeId="0" xr:uid="{02C4E6F9-C680-9A4E-8FE6-5FE3D6B276B0}">
+    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{1A1EB019-907B-974F-B8A9-28760AC102E7}">
       <text>
         <r>
           <rPr>
@@ -2265,11 +2273,12 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">occRemarks
-</t>
-        </r>
-        <r>
-          <rPr>
+          <t xml:space="preserve">recordedBy
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
@@ -2295,7 +2304,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Remarks about the occurrence that do not fit into other columns. 
+          <t xml:space="preserve">who the occurrence data was recorded by. If more than one individual, separate names with "|"
 </t>
         </r>
         <r>
@@ -2325,11 +2334,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>"abundant", "prevalent" , "no unusual travel off" "dominant" "very few" "add", "two large beds", "approx 30% cover"</t>
+          <t>"Harvey Janszen", "Harvey Janszen" | "Pam Janszen"</t>
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="1" shapeId="0" xr:uid="{1A1EB019-907B-974F-B8A9-28760AC102E7}">
+    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{44ACD083-7A9B-E146-B264-32980E3FE423}">
       <text>
         <r>
           <rPr>
@@ -2339,7 +2348,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">recordedBy
+          <t xml:space="preserve">idBy
 </t>
         </r>
         <r>
@@ -2370,87 +2379,12 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">who the occurrence data was recorded by. If more than one individual, separate names with "|"
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Examples: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>"Harvey Janszen", "Harvey Janszen" | "Pam Janszen"</t>
+          <t xml:space="preserve">identification by. Who identified the occurrence as a particular taxon? Follow the same formatting for recordedBy field if more than one individual. 
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="1" shapeId="0" xr:uid="{44ACD083-7A9B-E146-B264-32980E3FE423}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">idBy
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Definition: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">identification by. Who identified the occurrence as a particular taxon? Follow the same formatting for recordedBy field if more than one individual. 
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AF1" authorId="1" shapeId="0" xr:uid="{C09B578E-7BE1-1A44-890C-B5193E01F5A0}">
+    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{C09B578E-7BE1-1A44-890C-B5193E01F5A0}">
       <text>
         <r>
           <rPr>
@@ -3035,9 +2969,6 @@
     <t>Galiano Island</t>
   </si>
   <si>
-    <t>[archiveID]</t>
-  </si>
-  <si>
     <t>[pageNum]</t>
   </si>
   <si>
@@ -3078,6 +3009,9 @@
   </si>
   <si>
     <t>vCoordUncM</t>
+  </si>
+  <si>
+    <t>idQualifier</t>
   </si>
 </sst>
 </file>
@@ -3154,7 +3088,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3181,6 +3115,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE2F0DB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3213,7 +3153,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3233,6 +3173,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3556,26 +3497,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E2B542-A597-DF4D-A726-D9C00BB4087B}">
   <dimension ref="A1:AF64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="V5" sqref="V5"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="6.83203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="19.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="24.83203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="7.5" style="4" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="26" style="4" customWidth="1"/>
-    <col min="10" max="10" width="9" style="4" customWidth="1"/>
-    <col min="11" max="11" width="16.83203125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="7.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="26" style="4" customWidth="1"/>
+    <col min="9" max="9" width="9" style="4" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="6.1640625" style="4" customWidth="1"/>
     <col min="13" max="13" width="20.33203125" style="4" customWidth="1"/>
     <col min="14" max="14" width="10.83203125" style="4"/>
     <col min="15" max="15" width="22.1640625" style="4" customWidth="1"/>
@@ -3618,7 +3559,7 @@
       <c r="F1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>170</v>
       </c>
       <c r="H1" s="5" t="s">
@@ -3633,8 +3574,8 @@
       <c r="K1" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>175</v>
+      <c r="L1" s="7" t="s">
+        <v>178</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>150</v>
@@ -3664,13 +3605,13 @@
         <v>19</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="W1" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="X1" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="Y1" s="3" t="s">
         <v>157</v>
@@ -3698,42 +3639,40 @@
       </c>
     </row>
     <row r="2" spans="1:32" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>27</v>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="C2" t="s">
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="4">
+      <c r="G2" s="4">
         <v>20040212</v>
       </c>
+      <c r="H2" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="I2" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="L2"/>
       <c r="M2" s="4" t="s">
         <v>16</v>
       </c>
@@ -3758,42 +3697,40 @@
       <c r="AF2"/>
     </row>
     <row r="3" spans="1:32" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>27</v>
+      <c r="A3">
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
         <v>2</v>
       </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="4">
+      <c r="G3" s="4">
         <v>20040212</v>
       </c>
+      <c r="H3" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="I3" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="L3"/>
       <c r="M3" s="4" t="s">
         <v>16</v>
       </c>
@@ -3814,42 +3751,40 @@
       <c r="AF3"/>
     </row>
     <row r="4" spans="1:32" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>27</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="4">
+      <c r="G4" s="4">
         <v>20040212</v>
       </c>
+      <c r="H4" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="I4" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="L4"/>
       <c r="M4" s="4" t="s">
         <v>16</v>
       </c>
@@ -3864,42 +3799,40 @@
       </c>
     </row>
     <row r="5" spans="1:32" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>27</v>
+      <c r="A5">
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
         <v>4</v>
       </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="4">
+      <c r="G5" s="4">
         <v>20040212</v>
       </c>
+      <c r="H5" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="I5" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="L5"/>
       <c r="M5" s="4" t="s">
         <v>16</v>
       </c>
@@ -3918,42 +3851,40 @@
       <c r="AF5"/>
     </row>
     <row r="6" spans="1:32" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>27</v>
+      <c r="A6">
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
         <v>5</v>
       </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
         <v>32</v>
       </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="4">
+      <c r="G6" s="4">
         <v>20040212</v>
       </c>
+      <c r="H6" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="I6" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="L6"/>
       <c r="M6" s="4" t="s">
         <v>16</v>
       </c>
@@ -3972,42 +3903,40 @@
       <c r="AF6"/>
     </row>
     <row r="7" spans="1:32" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>27</v>
+      <c r="A7">
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
         <v>6</v>
       </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
         <v>34</v>
       </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="4">
+      <c r="G7" s="4">
         <v>20040212</v>
       </c>
+      <c r="H7" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="I7" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="L7"/>
       <c r="M7" s="4" t="s">
         <v>16</v>
       </c>
@@ -4022,42 +3951,40 @@
       </c>
     </row>
     <row r="8" spans="1:32" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>27</v>
+      <c r="A8">
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
         <v>7</v>
       </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
         <v>36</v>
       </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="G8" s="4">
         <v>20040212</v>
       </c>
+      <c r="H8" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="I8" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="L8"/>
       <c r="M8" s="4" t="s">
         <v>16</v>
       </c>
@@ -4076,42 +4003,40 @@
       <c r="AF8"/>
     </row>
     <row r="9" spans="1:32" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>27</v>
+      <c r="A9">
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
         <v>8</v>
       </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
         <v>39</v>
       </c>
-      <c r="F9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="4">
+      <c r="G9" s="4">
         <v>20040212</v>
       </c>
+      <c r="H9" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="I9" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="L9"/>
       <c r="M9" s="4" t="s">
         <v>16</v>
       </c>
@@ -4127,42 +4052,40 @@
       <c r="AF9"/>
     </row>
     <row r="10" spans="1:32" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>27</v>
+      <c r="A10">
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
         <v>9</v>
       </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" t="s">
         <v>41</v>
       </c>
-      <c r="F10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="4">
+      <c r="G10" s="4">
         <v>20040212</v>
       </c>
+      <c r="H10" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="I10" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="L10"/>
       <c r="M10" s="4" t="s">
         <v>16</v>
       </c>
@@ -4181,42 +4104,40 @@
       <c r="AF10"/>
     </row>
     <row r="11" spans="1:32" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>27</v>
+      <c r="A11">
+        <v>1</v>
       </c>
       <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
         <v>10</v>
       </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
         <v>44</v>
       </c>
-      <c r="F11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="G11" s="4">
         <v>20040212</v>
       </c>
+      <c r="H11" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="I11" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="L11"/>
       <c r="M11" s="4" t="s">
         <v>16</v>
       </c>
@@ -4236,42 +4157,40 @@
       <c r="AF11"/>
     </row>
     <row r="12" spans="1:32" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>27</v>
+      <c r="A12">
+        <v>1</v>
       </c>
       <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
         <v>11</v>
       </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="4">
+      <c r="G12" s="4">
         <v>20040212</v>
       </c>
+      <c r="H12" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="I12" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L12" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="L12"/>
       <c r="M12" s="4" t="s">
         <v>16</v>
       </c>
@@ -4299,42 +4218,40 @@
       <c r="AF12"/>
     </row>
     <row r="13" spans="1:32" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>27</v>
+      <c r="A13">
+        <v>1</v>
       </c>
       <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
         <v>12</v>
       </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="4">
+      <c r="G13" s="4">
         <v>20040212</v>
       </c>
+      <c r="H13" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="I13" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="L13"/>
       <c r="M13" s="4" t="s">
         <v>16</v>
       </c>
@@ -4358,42 +4275,40 @@
       <c r="AF13"/>
     </row>
     <row r="14" spans="1:32" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>27</v>
+      <c r="A14">
+        <v>2</v>
       </c>
       <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14">
         <v>1</v>
       </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
         <v>52</v>
       </c>
-      <c r="F14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="4">
+      <c r="G14" s="4">
         <v>20040312</v>
       </c>
+      <c r="H14" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I14" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L14" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="L14"/>
       <c r="M14" s="4" t="s">
         <v>16</v>
       </c>
@@ -4413,42 +4328,40 @@
       <c r="AF14"/>
     </row>
     <row r="15" spans="1:32" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>27</v>
+      <c r="A15">
+        <v>2</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15">
-        <v>2</v>
+      <c r="C15" t="s">
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="4">
+      <c r="G15" s="4">
         <v>20040312</v>
       </c>
+      <c r="H15" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I15" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L15" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="L15"/>
       <c r="M15" s="4" t="s">
         <v>16</v>
       </c>
@@ -4468,42 +4381,40 @@
       <c r="AF15"/>
     </row>
     <row r="16" spans="1:32" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>27</v>
+      <c r="A16">
+        <v>2</v>
       </c>
       <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
         <v>3</v>
       </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" t="s">
         <v>50</v>
       </c>
-      <c r="H16" s="4">
+      <c r="G16" s="4">
         <v>20040312</v>
       </c>
+      <c r="H16" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I16" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L16" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="L16"/>
       <c r="M16" s="4" t="s">
         <v>16</v>
       </c>
@@ -4523,42 +4434,40 @@
       <c r="AF16"/>
     </row>
     <row r="17" spans="1:32" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <v>27</v>
+      <c r="A17">
+        <v>2</v>
       </c>
       <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17">
         <v>4</v>
       </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="4">
+      <c r="G17" s="4">
         <v>20040312</v>
       </c>
+      <c r="H17" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I17" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L17" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="L17"/>
       <c r="M17" s="4" t="s">
         <v>16</v>
       </c>
@@ -4578,42 +4487,40 @@
       <c r="AF17"/>
     </row>
     <row r="18" spans="1:32" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
-        <v>27</v>
+      <c r="A18">
+        <v>2</v>
       </c>
       <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18">
         <v>5</v>
       </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
         <v>57</v>
       </c>
-      <c r="F18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" t="s">
-        <v>57</v>
-      </c>
-      <c r="H18" s="4">
+      <c r="G18" s="4">
         <v>20040312</v>
       </c>
+      <c r="H18" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I18" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L18" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="L18"/>
       <c r="M18" s="4" t="s">
         <v>16</v>
       </c>
@@ -4633,42 +4540,40 @@
       <c r="AF18"/>
     </row>
     <row r="19" spans="1:32" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
         <v>27</v>
       </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>6</v>
-      </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
         <v>28</v>
       </c>
-      <c r="F19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="4">
+      <c r="G19" s="4">
         <v>20040312</v>
       </c>
+      <c r="H19" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I19" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L19" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="L19"/>
       <c r="M19" s="4" t="s">
         <v>16</v>
       </c>
@@ -4688,42 +4593,40 @@
       <c r="AF19"/>
     </row>
     <row r="20" spans="1:32" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
-        <v>27</v>
+      <c r="A20">
+        <v>2</v>
       </c>
       <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
         <v>7</v>
       </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
       </c>
-      <c r="F20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="4">
+      <c r="G20" s="4">
         <v>20040312</v>
       </c>
+      <c r="H20" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I20" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L20" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="L20"/>
       <c r="M20" s="4" t="s">
         <v>16</v>
       </c>
@@ -4743,42 +4646,40 @@
       <c r="AF20"/>
     </row>
     <row r="21" spans="1:32" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
-        <v>27</v>
+      <c r="A21">
+        <v>2</v>
       </c>
       <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
         <v>8</v>
       </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
       <c r="D21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" t="s">
         <v>44</v>
       </c>
-      <c r="F21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" t="s">
-        <v>44</v>
-      </c>
-      <c r="H21" s="4">
+      <c r="G21" s="4">
         <v>20040312</v>
       </c>
+      <c r="H21" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I21" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L21" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="L21"/>
       <c r="M21" s="4" t="s">
         <v>16</v>
       </c>
@@ -4798,42 +4699,40 @@
       <c r="AF21"/>
     </row>
     <row r="22" spans="1:32" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
-        <v>27</v>
+      <c r="A22">
+        <v>2</v>
       </c>
       <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22">
         <v>9</v>
       </c>
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
         <v>52</v>
       </c>
-      <c r="F22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" t="s">
-        <v>52</v>
-      </c>
-      <c r="H22" s="4">
+      <c r="G22" s="4">
         <v>20040312</v>
       </c>
+      <c r="H22" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I22" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L22" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="L22"/>
       <c r="M22" s="4" t="s">
         <v>16</v>
       </c>
@@ -4853,42 +4752,40 @@
       <c r="AF22"/>
     </row>
     <row r="23" spans="1:32" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
-        <v>27</v>
+      <c r="A23">
+        <v>2</v>
       </c>
       <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23">
         <v>10</v>
       </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
         <v>34</v>
       </c>
-      <c r="F23" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H23" s="4">
+      <c r="G23" s="4">
         <v>20040312</v>
       </c>
+      <c r="H23" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I23" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L23" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="L23"/>
       <c r="M23" s="4" t="s">
         <v>16</v>
       </c>
@@ -4908,42 +4805,40 @@
       <c r="AF23"/>
     </row>
     <row r="24" spans="1:32" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
-        <v>27</v>
+      <c r="A24">
+        <v>2</v>
       </c>
       <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24">
         <v>11</v>
       </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>145</v>
       </c>
       <c r="E24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" t="s">
         <v>145</v>
       </c>
-      <c r="F24" t="s">
-        <v>59</v>
-      </c>
-      <c r="G24" t="s">
-        <v>145</v>
-      </c>
-      <c r="H24" s="4">
+      <c r="G24" s="4">
         <v>20040312</v>
       </c>
+      <c r="H24" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I24" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L24" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="L24"/>
       <c r="M24" s="4" t="s">
         <v>16</v>
       </c>
@@ -4965,42 +4860,40 @@
       </c>
     </row>
     <row r="25" spans="1:32" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
-        <v>27</v>
+      <c r="A25">
+        <v>2</v>
       </c>
       <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25">
         <v>12</v>
       </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
       <c r="D25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" t="s">
         <v>72</v>
       </c>
-      <c r="F25" t="s">
-        <v>59</v>
-      </c>
-      <c r="G25" t="s">
-        <v>72</v>
-      </c>
-      <c r="H25" s="4">
+      <c r="G25" s="4">
         <v>20040312</v>
       </c>
+      <c r="H25" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I25" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L25" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="L25"/>
       <c r="M25" s="4" t="s">
         <v>16</v>
       </c>
@@ -5020,42 +4913,40 @@
       <c r="AF25"/>
     </row>
     <row r="26" spans="1:32" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
-        <v>27</v>
+      <c r="A26">
+        <v>2</v>
       </c>
       <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26">
         <v>13</v>
       </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
       <c r="D26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" t="s">
         <v>61</v>
       </c>
-      <c r="F26" t="s">
-        <v>59</v>
-      </c>
-      <c r="G26" t="s">
-        <v>61</v>
-      </c>
-      <c r="H26" s="4">
+      <c r="G26" s="4">
         <v>20040312</v>
       </c>
+      <c r="H26" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I26" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L26" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="L26"/>
       <c r="M26" s="4" t="s">
         <v>16</v>
       </c>
@@ -5075,42 +4966,40 @@
       <c r="AF26"/>
     </row>
     <row r="27" spans="1:32" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
-        <v>27</v>
+      <c r="A27">
+        <v>2</v>
       </c>
       <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27">
         <v>14</v>
       </c>
+      <c r="C27" t="s">
+        <v>146</v>
+      </c>
       <c r="D27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E27" t="s">
-        <v>147</v>
+        <v>25</v>
       </c>
       <c r="F27" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" t="s">
         <v>148</v>
       </c>
-      <c r="H27" s="4">
+      <c r="G27" s="4">
         <v>20040312</v>
       </c>
+      <c r="H27" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I27" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L27" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="L27"/>
       <c r="M27" s="4" t="s">
         <v>16</v>
       </c>
@@ -5130,42 +5019,40 @@
       <c r="AF27"/>
     </row>
     <row r="28" spans="1:32" ht="51" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
-        <v>27</v>
+      <c r="A28">
+        <v>2</v>
       </c>
       <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28">
         <v>15</v>
       </c>
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
       <c r="D28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" t="s">
         <v>63</v>
       </c>
-      <c r="F28" t="s">
-        <v>25</v>
-      </c>
-      <c r="G28" t="s">
-        <v>63</v>
-      </c>
-      <c r="H28" s="4">
+      <c r="G28" s="4">
         <v>20040312</v>
       </c>
+      <c r="H28" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I28" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L28" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="L28"/>
       <c r="M28" s="4" t="s">
         <v>16</v>
       </c>
@@ -5186,42 +5073,40 @@
       </c>
     </row>
     <row r="29" spans="1:32" ht="51" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
-        <v>27</v>
+      <c r="A29">
+        <v>2</v>
       </c>
       <c r="B29">
-        <v>2</v>
-      </c>
-      <c r="C29">
         <v>16</v>
       </c>
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
       <c r="D29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" t="s">
         <v>65</v>
       </c>
-      <c r="F29" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" t="s">
-        <v>65</v>
-      </c>
-      <c r="H29" s="4">
+      <c r="G29" s="4">
         <v>20040312</v>
       </c>
+      <c r="H29" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I29" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L29" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="L29"/>
       <c r="M29" s="4" t="s">
         <v>16</v>
       </c>
@@ -5242,42 +5127,40 @@
       </c>
     </row>
     <row r="30" spans="1:32" ht="51" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
-        <v>27</v>
+      <c r="A30">
+        <v>2</v>
       </c>
       <c r="B30">
-        <v>2</v>
-      </c>
-      <c r="C30">
         <v>17</v>
       </c>
+      <c r="C30" t="s">
+        <v>75</v>
+      </c>
       <c r="D30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E30" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" t="s">
         <v>74</v>
       </c>
-      <c r="F30" t="s">
-        <v>42</v>
-      </c>
-      <c r="G30" t="s">
-        <v>74</v>
-      </c>
-      <c r="H30" s="4">
+      <c r="G30" s="4">
         <v>20040312</v>
       </c>
+      <c r="H30" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I30" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L30" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="L30"/>
       <c r="M30" s="4" t="s">
         <v>16</v>
       </c>
@@ -5298,42 +5181,40 @@
       </c>
     </row>
     <row r="31" spans="1:32" ht="51" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
-        <v>27</v>
+      <c r="A31">
+        <v>2</v>
       </c>
       <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="C31">
         <v>18</v>
       </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
       <c r="D31" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="E31" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" t="s">
         <v>77</v>
       </c>
-      <c r="F31" t="s">
-        <v>59</v>
-      </c>
-      <c r="G31" t="s">
-        <v>77</v>
-      </c>
-      <c r="H31" s="4">
+      <c r="G31" s="4">
         <v>20040312</v>
       </c>
+      <c r="H31" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I31" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L31" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="L31"/>
       <c r="M31" s="4" t="s">
         <v>16</v>
       </c>
@@ -5357,40 +5238,37 @@
       </c>
     </row>
     <row r="32" spans="1:32" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
-        <v>27</v>
+      <c r="A32">
+        <v>2</v>
       </c>
       <c r="B32">
-        <v>2</v>
-      </c>
-      <c r="C32">
         <v>19</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>78</v>
       </c>
       <c r="E32" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F32" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H32" s="4">
+      <c r="G32" s="4">
         <v>20040312</v>
       </c>
+      <c r="H32" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I32" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L32" s="4" t="s">
         <v>163</v>
       </c>
       <c r="M32" s="4" t="s">
@@ -5407,40 +5285,37 @@
       </c>
     </row>
     <row r="33" spans="1:32" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
-        <v>27</v>
+      <c r="A33">
+        <v>2</v>
       </c>
       <c r="B33">
-        <v>2</v>
-      </c>
-      <c r="C33">
         <v>20</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>79</v>
       </c>
       <c r="E33" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H33" s="4">
+      <c r="G33" s="4">
         <v>20040312</v>
       </c>
+      <c r="H33" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I33" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L33" s="4" t="s">
         <v>163</v>
       </c>
       <c r="M33" s="4" t="s">
@@ -5457,40 +5332,37 @@
       </c>
     </row>
     <row r="34" spans="1:32" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
-        <v>27</v>
+      <c r="A34">
+        <v>2</v>
       </c>
       <c r="B34">
-        <v>2</v>
-      </c>
-      <c r="C34">
         <v>21</v>
       </c>
+      <c r="C34" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="D34" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E34" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F34" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H34" s="4">
+      <c r="G34" s="4">
         <v>20040312</v>
       </c>
+      <c r="H34" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I34" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L34" s="4" t="s">
         <v>163</v>
       </c>
       <c r="M34" s="4" t="s">
@@ -5510,40 +5382,37 @@
       </c>
     </row>
     <row r="35" spans="1:32" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
-        <v>27</v>
+      <c r="A35">
+        <v>2</v>
       </c>
       <c r="B35">
-        <v>2</v>
-      </c>
-      <c r="C35">
         <v>22</v>
       </c>
+      <c r="C35" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="D35" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G35" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="H35" s="4">
+      <c r="G35" s="4">
         <v>20040312</v>
       </c>
+      <c r="H35" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I35" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L35" s="4" t="s">
         <v>163</v>
       </c>
       <c r="M35" s="4" t="s">
@@ -5563,40 +5432,37 @@
       </c>
     </row>
     <row r="36" spans="1:32" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
-        <v>27</v>
+      <c r="A36">
+        <v>3</v>
       </c>
       <c r="B36">
-        <v>3</v>
-      </c>
-      <c r="C36">
         <v>1</v>
       </c>
+      <c r="C36" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="D36" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E36" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F36" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="H36" s="4">
+      <c r="G36" s="4">
         <v>20040312</v>
       </c>
+      <c r="H36" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I36" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L36" s="4" t="s">
         <v>163</v>
       </c>
       <c r="M36" s="4" t="s">
@@ -5616,42 +5482,40 @@
       </c>
     </row>
     <row r="37" spans="1:32" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
-        <v>27</v>
+      <c r="A37">
+        <v>3</v>
       </c>
       <c r="B37">
-        <v>3</v>
-      </c>
-      <c r="C37">
         <v>2</v>
       </c>
+      <c r="C37" t="s">
+        <v>91</v>
+      </c>
       <c r="D37" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" t="s">
         <v>92</v>
       </c>
-      <c r="F37" t="s">
-        <v>25</v>
-      </c>
-      <c r="G37" t="s">
-        <v>92</v>
-      </c>
-      <c r="H37" s="4">
+      <c r="G37" s="4">
         <v>20040312</v>
       </c>
+      <c r="H37" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I37" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L37" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="L37"/>
       <c r="M37" s="4" t="s">
         <v>16</v>
       </c>
@@ -5666,42 +5530,40 @@
       </c>
     </row>
     <row r="38" spans="1:32" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
-        <v>27</v>
+      <c r="A38">
+        <v>3</v>
       </c>
       <c r="B38">
         <v>3</v>
       </c>
-      <c r="C38">
-        <v>3</v>
+      <c r="C38" t="s">
+        <v>93</v>
       </c>
       <c r="D38" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" t="s">
         <v>94</v>
       </c>
-      <c r="F38" t="s">
-        <v>25</v>
-      </c>
-      <c r="G38" t="s">
-        <v>94</v>
-      </c>
-      <c r="H38" s="4">
+      <c r="G38" s="4">
         <v>20040312</v>
       </c>
+      <c r="H38" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I38" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L38" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="L38"/>
       <c r="M38" s="4" t="s">
         <v>16</v>
       </c>
@@ -5716,42 +5578,40 @@
       </c>
     </row>
     <row r="39" spans="1:32" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
-        <v>27</v>
+      <c r="A39">
+        <v>3</v>
       </c>
       <c r="B39">
-        <v>3</v>
-      </c>
-      <c r="C39">
         <v>4</v>
       </c>
+      <c r="C39" t="s">
+        <v>95</v>
+      </c>
       <c r="D39" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" t="s">
         <v>96</v>
       </c>
-      <c r="F39" t="s">
-        <v>25</v>
-      </c>
-      <c r="G39" t="s">
-        <v>96</v>
-      </c>
-      <c r="H39" s="4">
+      <c r="G39" s="4">
         <v>20040312</v>
       </c>
+      <c r="H39" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I39" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L39" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="L39"/>
       <c r="M39" s="4" t="s">
         <v>16</v>
       </c>
@@ -5766,42 +5626,40 @@
       </c>
     </row>
     <row r="40" spans="1:32" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
-        <v>27</v>
+      <c r="A40">
+        <v>3</v>
       </c>
       <c r="B40">
-        <v>3</v>
-      </c>
-      <c r="C40">
         <v>5</v>
       </c>
+      <c r="C40" t="s">
+        <v>97</v>
+      </c>
       <c r="D40" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="E40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" t="s">
         <v>57</v>
       </c>
-      <c r="F40" t="s">
-        <v>25</v>
-      </c>
-      <c r="G40" t="s">
-        <v>57</v>
-      </c>
-      <c r="H40" s="4">
+      <c r="G40" s="4">
         <v>20040312</v>
       </c>
+      <c r="H40" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I40" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L40" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="L40"/>
       <c r="M40" s="4" t="s">
         <v>16</v>
       </c>
@@ -5816,42 +5674,40 @@
       </c>
     </row>
     <row r="41" spans="1:32" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
-        <v>27</v>
+      <c r="A41">
+        <v>3</v>
       </c>
       <c r="B41">
-        <v>3</v>
-      </c>
-      <c r="C41">
         <v>6</v>
       </c>
+      <c r="C41" t="s">
+        <v>98</v>
+      </c>
       <c r="D41" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" t="s">
         <v>99</v>
       </c>
-      <c r="F41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G41" t="s">
-        <v>99</v>
-      </c>
-      <c r="H41" s="4">
+      <c r="G41" s="4">
         <v>20040312</v>
       </c>
+      <c r="H41" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I41" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L41" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="L41"/>
       <c r="M41" s="4" t="s">
         <v>16</v>
       </c>
@@ -5866,42 +5722,40 @@
       </c>
     </row>
     <row r="42" spans="1:32" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="4">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
         <v>27</v>
       </c>
-      <c r="B42">
-        <v>3</v>
-      </c>
-      <c r="C42">
-        <v>7</v>
-      </c>
       <c r="D42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" t="s">
         <v>28</v>
       </c>
-      <c r="F42" t="s">
-        <v>25</v>
-      </c>
-      <c r="G42" t="s">
-        <v>28</v>
-      </c>
-      <c r="H42" s="4">
+      <c r="G42" s="4">
         <v>20040312</v>
       </c>
+      <c r="H42" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I42" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L42" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="L42"/>
       <c r="M42" s="4" t="s">
         <v>16</v>
       </c>
@@ -5916,42 +5770,40 @@
       </c>
     </row>
     <row r="43" spans="1:32" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="4">
-        <v>27</v>
+      <c r="A43">
+        <v>3</v>
       </c>
       <c r="B43">
-        <v>3</v>
-      </c>
-      <c r="C43">
         <v>8</v>
       </c>
+      <c r="C43" t="s">
+        <v>100</v>
+      </c>
       <c r="D43" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E43" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="F43" t="s">
-        <v>25</v>
-      </c>
-      <c r="G43" t="s">
         <v>102</v>
       </c>
-      <c r="H43" s="4">
+      <c r="G43" s="4">
         <v>20040312</v>
       </c>
+      <c r="H43" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I43" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L43" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="L43"/>
       <c r="M43" s="4" t="s">
         <v>16</v>
       </c>
@@ -5966,42 +5818,40 @@
       </c>
     </row>
     <row r="44" spans="1:32" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="4">
-        <v>27</v>
+      <c r="A44">
+        <v>3</v>
       </c>
       <c r="B44">
-        <v>3</v>
-      </c>
-      <c r="C44">
         <v>9</v>
       </c>
+      <c r="C44" t="s">
+        <v>103</v>
+      </c>
       <c r="D44" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E44" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" t="s">
         <v>104</v>
       </c>
-      <c r="F44" t="s">
-        <v>24</v>
-      </c>
-      <c r="G44" t="s">
-        <v>104</v>
-      </c>
-      <c r="H44" s="4">
+      <c r="G44" s="4">
         <v>20040312</v>
       </c>
+      <c r="H44" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I44" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L44" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="L44"/>
       <c r="M44" s="4" t="s">
         <v>16</v>
       </c>
@@ -6016,42 +5866,40 @@
       </c>
     </row>
     <row r="45" spans="1:32" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="4">
-        <v>27</v>
+      <c r="A45">
+        <v>3</v>
       </c>
       <c r="B45">
-        <v>3</v>
-      </c>
-      <c r="C45">
         <v>10</v>
       </c>
+      <c r="C45" t="s">
+        <v>105</v>
+      </c>
       <c r="D45" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" t="s">
         <v>106</v>
       </c>
-      <c r="F45" t="s">
-        <v>25</v>
-      </c>
-      <c r="G45" t="s">
-        <v>106</v>
-      </c>
-      <c r="H45" s="4">
+      <c r="G45" s="4">
         <v>20040312</v>
       </c>
+      <c r="H45" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I45" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L45" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="L45"/>
       <c r="M45" s="4" t="s">
         <v>16</v>
       </c>
@@ -6066,42 +5914,40 @@
       </c>
     </row>
     <row r="46" spans="1:32" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="4">
-        <v>27</v>
+      <c r="A46">
+        <v>3</v>
       </c>
       <c r="B46">
-        <v>3</v>
-      </c>
-      <c r="C46">
         <v>11</v>
       </c>
+      <c r="C46" t="s">
+        <v>107</v>
+      </c>
       <c r="D46" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="E46" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" t="s">
         <v>23</v>
       </c>
-      <c r="F46" t="s">
-        <v>25</v>
-      </c>
-      <c r="G46" t="s">
-        <v>23</v>
-      </c>
-      <c r="H46" s="4">
+      <c r="G46" s="4">
         <v>20040312</v>
       </c>
+      <c r="H46" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I46" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L46" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="L46"/>
       <c r="M46" s="4" t="s">
         <v>16</v>
       </c>
@@ -6116,42 +5962,40 @@
       </c>
     </row>
     <row r="47" spans="1:32" ht="34" x14ac:dyDescent="0.2">
-      <c r="A47" s="4">
-        <v>27</v>
+      <c r="A47">
+        <v>3</v>
       </c>
       <c r="B47">
-        <v>3</v>
-      </c>
-      <c r="C47">
         <v>12</v>
       </c>
+      <c r="C47" t="s">
+        <v>33</v>
+      </c>
       <c r="D47" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E47" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" t="s">
         <v>34</v>
       </c>
-      <c r="F47" t="s">
-        <v>25</v>
-      </c>
-      <c r="G47" t="s">
-        <v>34</v>
-      </c>
-      <c r="H47" s="4">
+      <c r="G47" s="4">
         <v>20040312</v>
       </c>
+      <c r="H47" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I47" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L47" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="L47"/>
       <c r="M47" s="4" t="s">
         <v>16</v>
       </c>
@@ -6175,42 +6019,40 @@
       </c>
     </row>
     <row r="48" spans="1:32" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="4">
-        <v>27</v>
+      <c r="A48">
+        <v>3</v>
       </c>
       <c r="B48">
-        <v>3</v>
-      </c>
-      <c r="C48">
         <v>13</v>
       </c>
+      <c r="C48" t="s">
+        <v>129</v>
+      </c>
       <c r="D48" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="E48" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" t="s">
         <v>108</v>
       </c>
-      <c r="F48" t="s">
-        <v>25</v>
-      </c>
-      <c r="G48" t="s">
-        <v>108</v>
-      </c>
-      <c r="H48" s="4">
+      <c r="G48" s="4">
         <v>20040312</v>
       </c>
+      <c r="H48" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I48" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L48" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="L48"/>
       <c r="M48" s="4" t="s">
         <v>16</v>
       </c>
@@ -6228,42 +6070,40 @@
       </c>
     </row>
     <row r="49" spans="1:32" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="4">
-        <v>27</v>
+      <c r="A49">
+        <v>3</v>
       </c>
       <c r="B49">
-        <v>3</v>
-      </c>
-      <c r="C49">
         <v>14</v>
       </c>
+      <c r="C49" t="s">
+        <v>109</v>
+      </c>
       <c r="D49" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E49" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" t="s">
         <v>110</v>
       </c>
-      <c r="F49" t="s">
-        <v>24</v>
-      </c>
-      <c r="G49" t="s">
-        <v>110</v>
-      </c>
-      <c r="H49" s="4">
+      <c r="G49" s="4">
         <v>20040312</v>
       </c>
+      <c r="H49" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I49" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L49" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="L49"/>
       <c r="M49" s="4" t="s">
         <v>16</v>
       </c>
@@ -6281,42 +6121,40 @@
       </c>
     </row>
     <row r="50" spans="1:32" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="4">
-        <v>27</v>
+      <c r="A50">
+        <v>3</v>
       </c>
       <c r="B50">
-        <v>3</v>
-      </c>
-      <c r="C50">
         <v>15</v>
       </c>
+      <c r="C50" t="s">
+        <v>111</v>
+      </c>
       <c r="D50" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E50" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="F50" t="s">
-        <v>24</v>
-      </c>
-      <c r="G50" t="s">
         <v>113</v>
       </c>
-      <c r="H50" s="4">
+      <c r="G50" s="4">
         <v>20040312</v>
       </c>
+      <c r="H50" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I50" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L50" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="L50"/>
       <c r="M50" s="4" t="s">
         <v>16</v>
       </c>
@@ -6334,42 +6172,40 @@
       </c>
     </row>
     <row r="51" spans="1:32" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="4">
-        <v>27</v>
+      <c r="A51">
+        <v>3</v>
       </c>
       <c r="B51">
-        <v>3</v>
-      </c>
-      <c r="C51">
         <v>16</v>
       </c>
+      <c r="C51" t="s">
+        <v>114</v>
+      </c>
       <c r="D51" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E51" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51" t="s">
         <v>115</v>
       </c>
-      <c r="F51" t="s">
-        <v>25</v>
-      </c>
-      <c r="G51" t="s">
-        <v>115</v>
-      </c>
-      <c r="H51" s="4">
+      <c r="G51" s="4">
         <v>20040312</v>
       </c>
+      <c r="H51" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I51" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L51" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="L51"/>
       <c r="M51" s="4" t="s">
         <v>16</v>
       </c>
@@ -6387,42 +6223,40 @@
       </c>
     </row>
     <row r="52" spans="1:32" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="4">
-        <v>27</v>
+      <c r="A52">
+        <v>3</v>
       </c>
       <c r="B52">
-        <v>3</v>
-      </c>
-      <c r="C52">
         <v>17</v>
       </c>
+      <c r="C52" t="s">
+        <v>45</v>
+      </c>
       <c r="D52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E52" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="F52" t="s">
-        <v>24</v>
-      </c>
-      <c r="G52" t="s">
         <v>47</v>
       </c>
-      <c r="H52" s="4">
+      <c r="G52" s="4">
         <v>20040312</v>
       </c>
+      <c r="H52" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I52" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L52" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="L52"/>
       <c r="M52" s="4" t="s">
         <v>16</v>
       </c>
@@ -6440,42 +6274,40 @@
       </c>
     </row>
     <row r="53" spans="1:32" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="4">
-        <v>27</v>
+      <c r="A53">
+        <v>3</v>
       </c>
       <c r="B53">
-        <v>3</v>
-      </c>
-      <c r="C53">
         <v>18</v>
       </c>
+      <c r="C53" t="s">
+        <v>116</v>
+      </c>
       <c r="D53" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E53" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" t="s">
         <v>117</v>
       </c>
-      <c r="F53" t="s">
-        <v>25</v>
-      </c>
-      <c r="G53" t="s">
-        <v>117</v>
-      </c>
-      <c r="H53" s="4">
+      <c r="G53" s="4">
         <v>20040312</v>
       </c>
+      <c r="H53" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I53" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L53" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="L53"/>
       <c r="M53" s="4" t="s">
         <v>16</v>
       </c>
@@ -6493,42 +6325,40 @@
       </c>
     </row>
     <row r="54" spans="1:32" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="4">
-        <v>27</v>
+      <c r="A54">
+        <v>3</v>
       </c>
       <c r="B54">
-        <v>3</v>
-      </c>
-      <c r="C54">
         <v>19</v>
       </c>
+      <c r="C54" t="s">
+        <v>118</v>
+      </c>
       <c r="D54" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E54" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" t="s">
         <v>119</v>
       </c>
-      <c r="F54" t="s">
-        <v>25</v>
-      </c>
-      <c r="G54" t="s">
-        <v>119</v>
-      </c>
-      <c r="H54" s="4">
+      <c r="G54" s="4">
         <v>20040312</v>
       </c>
+      <c r="H54" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I54" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L54" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="L54"/>
       <c r="M54" s="4" t="s">
         <v>16</v>
       </c>
@@ -6546,42 +6376,40 @@
       </c>
     </row>
     <row r="55" spans="1:32" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="4">
-        <v>27</v>
+      <c r="A55">
+        <v>3</v>
       </c>
       <c r="B55">
-        <v>3</v>
-      </c>
-      <c r="C55">
         <v>20</v>
       </c>
+      <c r="C55" t="s">
+        <v>120</v>
+      </c>
       <c r="D55" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F55" t="s">
-        <v>59</v>
-      </c>
-      <c r="G55" t="s">
         <v>55</v>
       </c>
-      <c r="H55" s="4">
+      <c r="G55" s="4">
         <v>20040312</v>
       </c>
+      <c r="H55" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I55" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L55" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="L55"/>
       <c r="M55" s="4" t="s">
         <v>16</v>
       </c>
@@ -6599,42 +6427,40 @@
       </c>
     </row>
     <row r="56" spans="1:32" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="4">
-        <v>27</v>
+      <c r="A56">
+        <v>3</v>
       </c>
       <c r="B56">
-        <v>3</v>
-      </c>
-      <c r="C56">
         <v>21</v>
       </c>
+      <c r="C56" t="s">
+        <v>97</v>
+      </c>
       <c r="D56" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="E56" t="s">
+        <v>25</v>
+      </c>
+      <c r="F56" t="s">
         <v>57</v>
       </c>
-      <c r="F56" t="s">
-        <v>25</v>
-      </c>
-      <c r="G56" t="s">
-        <v>57</v>
-      </c>
-      <c r="H56" s="4">
+      <c r="G56" s="4">
         <v>20040312</v>
       </c>
+      <c r="H56" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I56" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L56" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="L56"/>
       <c r="M56" s="4" t="s">
         <v>16</v>
       </c>
@@ -6652,42 +6478,40 @@
       </c>
     </row>
     <row r="57" spans="1:32" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="4">
-        <v>27</v>
+      <c r="A57">
+        <v>3</v>
       </c>
       <c r="B57">
-        <v>3</v>
-      </c>
-      <c r="C57">
         <v>23</v>
       </c>
+      <c r="C57" t="s">
+        <v>103</v>
+      </c>
       <c r="D57" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E57" t="s">
+        <v>24</v>
+      </c>
+      <c r="F57" t="s">
         <v>104</v>
       </c>
-      <c r="F57" t="s">
-        <v>24</v>
-      </c>
-      <c r="G57" t="s">
-        <v>104</v>
-      </c>
-      <c r="H57" s="4">
+      <c r="G57" s="4">
         <v>20040312</v>
       </c>
+      <c r="H57" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I57" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L57" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="L57"/>
       <c r="M57" s="4" t="s">
         <v>16</v>
       </c>
@@ -6705,42 +6529,40 @@
       </c>
     </row>
     <row r="58" spans="1:32" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="4">
-        <v>27</v>
+      <c r="A58">
+        <v>3</v>
       </c>
       <c r="B58">
-        <v>3</v>
-      </c>
-      <c r="C58">
         <v>24</v>
       </c>
+      <c r="C58" t="s">
+        <v>121</v>
+      </c>
       <c r="D58" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E58" t="s">
-        <v>122</v>
+        <v>24</v>
       </c>
       <c r="F58" t="s">
-        <v>24</v>
-      </c>
-      <c r="G58" t="s">
         <v>123</v>
       </c>
-      <c r="H58" s="4">
+      <c r="G58" s="4">
         <v>20040312</v>
       </c>
+      <c r="H58" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I58" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L58" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="L58"/>
       <c r="M58" s="4" t="s">
         <v>16</v>
       </c>
@@ -6761,42 +6583,40 @@
       </c>
     </row>
     <row r="59" spans="1:32" ht="34" x14ac:dyDescent="0.2">
-      <c r="A59" s="4">
-        <v>27</v>
+      <c r="A59">
+        <v>3</v>
       </c>
       <c r="B59">
-        <v>3</v>
-      </c>
-      <c r="C59">
         <v>25</v>
       </c>
+      <c r="C59" t="s">
+        <v>124</v>
+      </c>
       <c r="D59" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E59" t="s">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="F59" t="s">
-        <v>42</v>
-      </c>
-      <c r="G59" t="s">
         <v>126</v>
       </c>
-      <c r="H59" s="4">
+      <c r="G59" s="4">
         <v>20040312</v>
       </c>
+      <c r="H59" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I59" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L59" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="L59"/>
       <c r="M59" s="4" t="s">
         <v>16</v>
       </c>
@@ -6814,42 +6634,40 @@
       </c>
     </row>
     <row r="60" spans="1:32" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="4">
-        <v>27</v>
+      <c r="A60">
+        <v>3</v>
       </c>
       <c r="B60">
-        <v>3</v>
-      </c>
-      <c r="C60">
         <v>26</v>
       </c>
+      <c r="C60" t="s">
+        <v>135</v>
+      </c>
       <c r="D60" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E60" t="s">
+        <v>24</v>
+      </c>
+      <c r="F60" t="s">
         <v>136</v>
       </c>
-      <c r="F60" t="s">
-        <v>24</v>
-      </c>
-      <c r="G60" t="s">
-        <v>136</v>
-      </c>
-      <c r="H60" s="4">
+      <c r="G60" s="4">
         <v>20040312</v>
       </c>
+      <c r="H60" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I60" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L60" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="L60"/>
       <c r="M60" s="4" t="s">
         <v>16</v>
       </c>
@@ -6867,42 +6685,40 @@
       </c>
     </row>
     <row r="61" spans="1:32" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="4">
+      <c r="A61">
+        <v>3</v>
+      </c>
+      <c r="B61">
         <v>27</v>
       </c>
-      <c r="B61">
-        <v>3</v>
-      </c>
-      <c r="C61">
-        <v>27</v>
+      <c r="C61" t="s">
+        <v>127</v>
       </c>
       <c r="D61" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E61" t="s">
+        <v>25</v>
+      </c>
+      <c r="F61" t="s">
         <v>128</v>
       </c>
-      <c r="F61" t="s">
-        <v>25</v>
-      </c>
-      <c r="G61" t="s">
-        <v>128</v>
-      </c>
-      <c r="H61" s="4">
+      <c r="G61" s="4">
         <v>20040312</v>
       </c>
+      <c r="H61" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I61" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L61" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="L61"/>
       <c r="M61" s="4" t="s">
         <v>16</v>
       </c>
@@ -6921,39 +6737,36 @@
     </row>
     <row r="62" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
-        <v>27</v>
-      </c>
-      <c r="B62" s="4">
         <v>3</v>
       </c>
-      <c r="C62">
+      <c r="B62">
         <v>28</v>
       </c>
+      <c r="C62" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="D62" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E62" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F62" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F62" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H62" s="4">
+      <c r="G62" s="4">
         <v>20040312</v>
       </c>
+      <c r="H62" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I62" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L62" s="4" t="s">
         <v>163</v>
       </c>
       <c r="M62" s="4" t="s">
@@ -6974,39 +6787,36 @@
     </row>
     <row r="63" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
-        <v>27</v>
-      </c>
-      <c r="B63" s="4">
         <v>3</v>
       </c>
-      <c r="C63">
+      <c r="B63">
         <v>29</v>
       </c>
+      <c r="C63" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="D63" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E63" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F63" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F63" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="H63" s="4">
+      <c r="G63" s="4">
         <v>20040312</v>
       </c>
+      <c r="H63" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I63" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L63" s="4" t="s">
         <v>163</v>
       </c>
       <c r="M63" s="4" t="s">
@@ -7027,39 +6837,36 @@
     </row>
     <row r="64" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
-        <v>27</v>
-      </c>
-      <c r="B64" s="4">
         <v>3</v>
       </c>
-      <c r="C64">
+      <c r="B64">
         <v>30</v>
       </c>
+      <c r="C64" s="4" t="s">
+        <v>144</v>
+      </c>
       <c r="D64" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E64" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F64" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F64" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="H64" s="4">
+      <c r="G64" s="4">
         <v>20040312</v>
       </c>
+      <c r="H64" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I64" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L64" s="4" t="s">
         <v>163</v>
       </c>
       <c r="M64" s="4" t="s">

--- a/data/digitized_data/occurrence_data/raw_data/HJ-27-occ-entry.xlsx
+++ b/data/digitized_data/occurrence_data/raw_data/HJ-27-occ-entry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Emma/Desktop/LDP Internship/Harvey_Janszen_Legacy_Project/data/digitized_data/occurrence_data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD33E8E-9A80-134D-8888-33088492533E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAEF351-991D-FC46-8585-B0D959865859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15320" xr2:uid="{6CD260D0-3248-EC4C-A246-EE521030FA00}"/>
   </bookViews>
@@ -1348,33 +1348,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{B9586400-66D1-7141-8F4F-DF928AA236E2}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{C6473173-DDA5-D44D-87A7-A892FDDB11D3}">
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">locationRemarks
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">assOcc
+</t>
+        </r>
+        <r>
+          <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
@@ -1400,33 +1387,41 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Use this column to denote information about plot location or polygon number, or miscellaneous notes that discuss the relative position or the state of the habitat/ site
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Example: poly 20
-</t>
+          <t xml:space="preserve">the occurrence numbers of taxa growing with this occurrence. HOWEVER, when entering data, only input data in this column if occurrence was growing with a specimen that was collected. Record the collection number here with HJC to indicate collected specimen
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Example: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>"HJC-2863"</t>
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{C334D07E-4730-1749-B76E-5A26B42DC1C1}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{1762D171-209D-D947-8555-AFF34FF14DD2}">
       <text>
         <r>
           <rPr>
@@ -1436,7 +1431,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">vTaxonRank (REQUIRED)
+          <t xml:space="preserve">assTaxa
 </t>
         </r>
         <r>
@@ -1478,7 +1473,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">verbatim taxon rank. The lowest level of taxonomy provided. 
+          <t xml:space="preserve">associated taxa. Use this field to denote scientific names of associated taxa. HOWEVER, only do this if that associated taxa has a collection number/ is a collected specimen. Otherwise leave blank. 
 </t>
         </r>
         <r>
@@ -1508,22 +1503,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">if specific epiphet in scientific name = "species", alternatively if lowest level is generic name = "genus"
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
+          <t>Isoetes echinospora</t>
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{CA3A2C45-C583-DA43-877C-3A38B460B025}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{B9586400-66D1-7141-8F4F-DF928AA236E2}">
       <text>
         <r>
           <rPr>
@@ -1533,30 +1517,23 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>vElev</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
+          <t xml:space="preserve">locationRemarks
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
@@ -1582,389 +1559,423 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">verbatim elevation. The elevation in meters if provided
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Example</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">: 10 </t>
+          <t xml:space="preserve">Use this column to denote information about plot location or polygon number, or miscellaneous notes that discuss the relative position or the state of the habitat/ site
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Example: poly 20
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="1" shapeId="0" xr:uid="{9F8D95FB-54D3-F04C-9134-F2DD1CEAD6ED}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{C334D07E-4730-1749-B76E-5A26B42DC1C1}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">vLat 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Definition:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> verbatim latitude. The geographic latitude in decimal degrees or degrees minutes seconds. Positive values are north of the Equator, negative values are south of it. Legal values lie between -90 and 90, inclusive.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Examples: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> "-41.0983423". If degrees minutes seconds: 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>49 39 12</t>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">vTaxonRank (REQUIRED)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Definition: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">verbatim taxon rank. The lowest level of taxonomy provided. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Example: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">if specific epiphet in scientific name = "species", alternatively if lowest level is generic name = "genus"
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="1" shapeId="0" xr:uid="{A76DD89C-13AB-F048-A935-8FD1A912F16A}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{CA3A2C45-C583-DA43-877C-3A38B460B025}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">RECOMMENDED
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Definition:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">verbatim longitude. The geographic longitude in decimal degrees or degrees minutes seconds. </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Positive values are east of the Greenwich Meridian, negative values are west of it. Legal values lie between -180 and 180, inclusive.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Examples: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> "-121.1761111". If in degrees minutes secons: 124 56 37</t>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>vElev</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Definition: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">verbatim elevation. The elevation in meters if provided
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Example</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: 10 </t>
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{B3BFE285-5D7E-014B-96D5-A3177370E856}">
+    <comment ref="U1" authorId="1" shapeId="0" xr:uid="{9F8D95FB-54D3-F04C-9134-F2DD1CEAD6ED}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">vUTM
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Definition: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">if verbatim coordinates in UTM, denote in this column. Separate into 3 strings. 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Example: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>10U 45689 55678</t>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">vLat 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Definition:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> verbatim latitude. The geographic latitude in decimal degrees or degrees minutes seconds. Positive values are north of the Equator, negative values are south of it. Legal values lie between -90 and 90, inclusive.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Examples: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> "-41.0983423". If degrees minutes seconds: 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>49 39 12</t>
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{C36EAF92-CB2B-8247-A6B4-E6839E892AD6}">
+    <comment ref="V1" authorId="1" shapeId="0" xr:uid="{A76DD89C-13AB-F048-A935-8FD1A912F16A}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">vCoordUncertainty
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Definition: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">denote the verbatim coordinate uncertainty in meters if provided with associated verbatim UTM or degree coordinates 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Example: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">30 </t>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">RECOMMENDED
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Definition:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">verbatim longitude. The geographic longitude in decimal degrees or degrees minutes seconds. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Positive values are east of the Greenwich Meridian, negative values are west of it. Legal values lie between -180 and 180, inclusive.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Examples: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> "-121.1761111". If in degrees minutes secons: 124 56 37</t>
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{C6473173-DDA5-D44D-87A7-A892FDDB11D3}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{B3BFE285-5D7E-014B-96D5-A3177370E856}">
       <text>
         <r>
           <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">assOcc
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">vUTM
 </t>
         </r>
         <r>
@@ -1994,7 +2005,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">the occurrence numbers of taxa growing with this occurrence. HOWEVER, when entering data, only input data in this column if occurrence was growing with a specimen that was collected. Record the collection number here with HJC to indicate collected specimen
+          <t xml:space="preserve">if verbatim coordinates in UTM, denote in this column. Separate into 3 strings. 
 </t>
         </r>
         <r>
@@ -2024,11 +2035,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>"HJC-2863"</t>
+          <t>10U 45689 55678</t>
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{1762D171-209D-D947-8555-AFF34FF14DD2}">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{C36EAF92-CB2B-8247-A6B4-E6839E892AD6}">
       <text>
         <r>
           <rPr>
@@ -2038,18 +2049,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">assTaxa
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">vCoordUncertainty
 </t>
         </r>
         <r>
@@ -2080,7 +2080,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">associated taxa. Use this field to denote scientific names of associated taxa. HOWEVER, only do this if that associated taxa has a collection number/ is a collected specimen. Otherwise leave blank. 
+          <t xml:space="preserve">denote the verbatim coordinate uncertainty in meters if provided with associated verbatim UTM or degree coordinates 
 </t>
         </r>
         <r>
@@ -2110,7 +2110,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Isoetes echinospora</t>
+          <t xml:space="preserve">30 </t>
         </r>
       </text>
     </comment>
@@ -2475,7 +2475,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="181">
   <si>
     <t>genus</t>
   </si>
@@ -2957,9 +2957,6 @@
     <t>orgQtype</t>
   </si>
   <si>
-    <t>individuals</t>
-  </si>
-  <si>
     <t>phenology</t>
   </si>
   <si>
@@ -3012,6 +3009,15 @@
   </si>
   <si>
     <t>idQualifier</t>
+  </si>
+  <si>
+    <t>qualitative</t>
+  </si>
+  <si>
+    <t>few</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
@@ -3497,10 +3503,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E2B542-A597-DF4D-A726-D9C00BB4087B}">
   <dimension ref="A1:AF64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="137" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomLeft" activeCell="AB31" sqref="AB31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3520,15 +3526,15 @@
     <col min="13" max="13" width="20.33203125" style="4" customWidth="1"/>
     <col min="14" max="14" width="10.83203125" style="4"/>
     <col min="15" max="15" width="22.1640625" style="4" customWidth="1"/>
-    <col min="16" max="16" width="16.83203125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="11.83203125" style="4" customWidth="1"/>
-    <col min="18" max="18" width="8.5" style="4" customWidth="1"/>
-    <col min="19" max="19" width="9.1640625" style="4" customWidth="1"/>
-    <col min="20" max="20" width="11.6640625" style="4" customWidth="1"/>
-    <col min="21" max="21" width="19.1640625" style="4" customWidth="1"/>
-    <col min="22" max="22" width="11.33203125" style="4" customWidth="1"/>
-    <col min="23" max="23" width="14.33203125" style="4" customWidth="1"/>
-    <col min="24" max="24" width="29.5" style="4" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="29.5" style="4" customWidth="1"/>
+    <col min="18" max="18" width="16.83203125" style="4" customWidth="1"/>
+    <col min="19" max="19" width="11.83203125" style="4" customWidth="1"/>
+    <col min="20" max="20" width="8.5" style="4" customWidth="1"/>
+    <col min="21" max="21" width="9.1640625" style="4" customWidth="1"/>
+    <col min="22" max="22" width="11.6640625" style="4" customWidth="1"/>
+    <col min="23" max="23" width="19.1640625" style="4" customWidth="1"/>
+    <col min="24" max="24" width="11.33203125" style="4" customWidth="1"/>
     <col min="25" max="25" width="7.5" style="4" customWidth="1"/>
     <col min="26" max="26" width="11.33203125" style="4" customWidth="1"/>
     <col min="27" max="27" width="11.1640625" style="4" customWidth="1"/>
@@ -3542,40 +3548,40 @@
   <sheetData>
     <row r="1" spans="1:32" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>174</v>
-      </c>
       <c r="L1" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>150</v>
@@ -3586,29 +3592,29 @@
       <c r="O1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="U1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>175</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>176</v>
@@ -3626,7 +3632,7 @@
         <v>20</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AD1" s="3" t="s">
         <v>153</v>
@@ -3670,7 +3676,7 @@
         <v>14</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L2"/>
       <c r="M2" s="4" t="s">
@@ -3679,17 +3685,17 @@
       <c r="N2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2"/>
+      <c r="S2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="U2"/>
-      <c r="V2"/>
+      <c r="W2"/>
       <c r="X2"/>
       <c r="Z2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="AD2" s="4" t="s">
         <v>18</v>
@@ -3728,7 +3734,7 @@
         <v>14</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L3"/>
       <c r="M3" s="4" t="s">
@@ -3740,11 +3746,11 @@
       <c r="O3" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="U3"/>
-      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
       <c r="AD3" s="4" t="s">
         <v>18</v>
       </c>
@@ -3782,7 +3788,7 @@
         <v>14</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L4"/>
       <c r="M4" s="4" t="s">
@@ -3791,7 +3797,7 @@
       <c r="N4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="S4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD4" s="4" t="s">
@@ -3830,7 +3836,7 @@
         <v>14</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L5"/>
       <c r="M5" s="4" t="s">
@@ -3842,7 +3848,7 @@
       <c r="O5" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="S5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD5" s="4" t="s">
@@ -3882,7 +3888,7 @@
         <v>14</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L6"/>
       <c r="M6" s="4" t="s">
@@ -3894,7 +3900,10 @@
       <c r="O6" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="R6" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="S6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD6" s="4" t="s">
@@ -3934,7 +3943,7 @@
         <v>14</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L7"/>
       <c r="M7" s="4" t="s">
@@ -3943,7 +3952,7 @@
       <c r="N7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="S7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD7" s="4" t="s">
@@ -3982,7 +3991,7 @@
         <v>14</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L8"/>
       <c r="M8" s="4" t="s">
@@ -3994,7 +4003,7 @@
       <c r="O8" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="S8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD8" s="4" t="s">
@@ -4034,7 +4043,7 @@
         <v>14</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L9"/>
       <c r="M9" s="4" t="s">
@@ -4043,7 +4052,7 @@
       <c r="N9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="S9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD9" s="4" t="s">
@@ -4083,7 +4092,7 @@
         <v>14</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L10"/>
       <c r="M10" s="4" t="s">
@@ -4095,7 +4104,7 @@
       <c r="O10" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="Q10" s="4" t="s">
+      <c r="S10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD10" s="4" t="s">
@@ -4135,7 +4144,7 @@
         <v>14</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L11"/>
       <c r="M11" s="4" t="s">
@@ -4147,8 +4156,8 @@
       <c r="O11" t="s">
         <v>67</v>
       </c>
-      <c r="P11"/>
-      <c r="Q11" s="4" t="s">
+      <c r="R11"/>
+      <c r="S11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD11" s="4" t="s">
@@ -4188,7 +4197,7 @@
         <v>14</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L12"/>
       <c r="M12" s="4" t="s">
@@ -4200,17 +4209,17 @@
       <c r="O12" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="P12" s="4" t="s">
+      <c r="R12" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="Q12" s="4" t="s">
+      <c r="S12" s="4" t="s">
         <v>11</v>
       </c>
       <c r="Z12" s="4" t="s">
         <v>71</v>
       </c>
       <c r="AA12" s="4" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="AD12" s="4" t="s">
         <v>18</v>
@@ -4249,7 +4258,7 @@
         <v>14</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L13"/>
       <c r="M13" s="4" t="s">
@@ -4261,8 +4270,8 @@
       <c r="O13" t="s">
         <v>67</v>
       </c>
-      <c r="P13"/>
-      <c r="Q13" s="4" t="s">
+      <c r="R13"/>
+      <c r="S13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AB13" t="s">
@@ -4306,7 +4315,7 @@
         <v>14</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L14"/>
       <c r="M14" s="4" t="s">
@@ -4318,8 +4327,8 @@
       <c r="O14" t="s">
         <v>67</v>
       </c>
-      <c r="P14"/>
-      <c r="Q14" s="4" t="s">
+      <c r="R14"/>
+      <c r="S14" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD14" s="4" t="s">
@@ -4359,7 +4368,7 @@
         <v>14</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L15"/>
       <c r="M15" s="4" t="s">
@@ -4371,8 +4380,8 @@
       <c r="O15" t="s">
         <v>67</v>
       </c>
-      <c r="P15"/>
-      <c r="Q15" s="4" t="s">
+      <c r="R15"/>
+      <c r="S15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD15" s="4" t="s">
@@ -4412,7 +4421,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L16"/>
       <c r="M16" s="4" t="s">
@@ -4424,8 +4433,8 @@
       <c r="O16" t="s">
         <v>67</v>
       </c>
-      <c r="P16"/>
-      <c r="Q16" s="4" t="s">
+      <c r="R16"/>
+      <c r="S16" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD16" s="4" t="s">
@@ -4465,7 +4474,7 @@
         <v>14</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L17"/>
       <c r="M17" s="4" t="s">
@@ -4477,8 +4486,8 @@
       <c r="O17" t="s">
         <v>67</v>
       </c>
-      <c r="P17"/>
-      <c r="Q17" s="4" t="s">
+      <c r="R17"/>
+      <c r="S17" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD17" s="4" t="s">
@@ -4518,7 +4527,7 @@
         <v>14</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L18"/>
       <c r="M18" s="4" t="s">
@@ -4530,8 +4539,8 @@
       <c r="O18" t="s">
         <v>67</v>
       </c>
-      <c r="P18"/>
-      <c r="Q18" s="4" t="s">
+      <c r="R18"/>
+      <c r="S18" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD18" s="4" t="s">
@@ -4571,7 +4580,7 @@
         <v>14</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L19"/>
       <c r="M19" s="4" t="s">
@@ -4583,8 +4592,8 @@
       <c r="O19" t="s">
         <v>67</v>
       </c>
-      <c r="P19"/>
-      <c r="Q19" s="4" t="s">
+      <c r="R19"/>
+      <c r="S19" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD19" s="4" t="s">
@@ -4624,7 +4633,7 @@
         <v>14</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L20"/>
       <c r="M20" s="4" t="s">
@@ -4636,8 +4645,8 @@
       <c r="O20" t="s">
         <v>67</v>
       </c>
-      <c r="P20"/>
-      <c r="Q20" s="4" t="s">
+      <c r="R20"/>
+      <c r="S20" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD20" s="4" t="s">
@@ -4677,7 +4686,7 @@
         <v>14</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L21"/>
       <c r="M21" s="4" t="s">
@@ -4689,8 +4698,8 @@
       <c r="O21" t="s">
         <v>67</v>
       </c>
-      <c r="P21"/>
-      <c r="Q21" s="4" t="s">
+      <c r="R21"/>
+      <c r="S21" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD21" s="4" t="s">
@@ -4730,7 +4739,7 @@
         <v>14</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L22"/>
       <c r="M22" s="4" t="s">
@@ -4742,8 +4751,8 @@
       <c r="O22" t="s">
         <v>67</v>
       </c>
-      <c r="P22"/>
-      <c r="Q22" s="4" t="s">
+      <c r="R22"/>
+      <c r="S22" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD22" s="4" t="s">
@@ -4783,7 +4792,7 @@
         <v>14</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L23"/>
       <c r="M23" s="4" t="s">
@@ -4795,8 +4804,8 @@
       <c r="O23" t="s">
         <v>67</v>
       </c>
-      <c r="P23"/>
-      <c r="Q23" s="4" t="s">
+      <c r="R23"/>
+      <c r="S23" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD23" s="4" t="s">
@@ -4836,7 +4845,7 @@
         <v>14</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L24"/>
       <c r="M24" s="4" t="s">
@@ -4848,8 +4857,8 @@
       <c r="O24" t="s">
         <v>68</v>
       </c>
-      <c r="P24"/>
-      <c r="Q24" s="4" t="s">
+      <c r="R24"/>
+      <c r="S24" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD24" s="4" t="s">
@@ -4891,7 +4900,7 @@
         <v>14</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L25"/>
       <c r="M25" s="4" t="s">
@@ -4903,8 +4912,8 @@
       <c r="O25" t="s">
         <v>68</v>
       </c>
-      <c r="P25"/>
-      <c r="Q25" s="4" t="s">
+      <c r="R25"/>
+      <c r="S25" s="4" t="s">
         <v>0</v>
       </c>
       <c r="AD25" s="4" t="s">
@@ -4944,7 +4953,7 @@
         <v>14</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L26"/>
       <c r="M26" s="4" t="s">
@@ -4956,8 +4965,8 @@
       <c r="O26" t="s">
         <v>69</v>
       </c>
-      <c r="P26"/>
-      <c r="Q26" s="4" t="s">
+      <c r="R26"/>
+      <c r="S26" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD26" s="4" t="s">
@@ -4997,7 +5006,7 @@
         <v>14</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L27"/>
       <c r="M27" s="4" t="s">
@@ -5009,8 +5018,8 @@
       <c r="O27" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="P27"/>
-      <c r="Q27" s="4" t="s">
+      <c r="R27"/>
+      <c r="S27" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD27" s="4" t="s">
@@ -5050,7 +5059,7 @@
         <v>14</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L28"/>
       <c r="M28" s="4" t="s">
@@ -5059,10 +5068,10 @@
       <c r="N28" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="P28" s="4" t="s">
+      <c r="R28" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="Q28" s="4" t="s">
+      <c r="S28" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD28" s="4" t="s">
@@ -5104,7 +5113,7 @@
         <v>14</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L29"/>
       <c r="M29" s="4" t="s">
@@ -5113,10 +5122,10 @@
       <c r="N29" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="4" t="s">
+      <c r="R29" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="Q29" s="4" t="s">
+      <c r="S29" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD29" s="4" t="s">
@@ -5158,7 +5167,7 @@
         <v>14</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L30"/>
       <c r="M30" s="4" t="s">
@@ -5167,10 +5176,10 @@
       <c r="N30" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="P30" s="4" t="s">
+      <c r="R30" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="Q30" s="4" t="s">
+      <c r="S30" s="4" t="s">
         <v>0</v>
       </c>
       <c r="AD30" s="4" t="s">
@@ -5212,7 +5221,7 @@
         <v>14</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L31"/>
       <c r="M31" s="4" t="s">
@@ -5221,11 +5230,17 @@
       <c r="N31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="P31" s="4" t="s">
+      <c r="R31" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="Q31" s="4" t="s">
+      <c r="S31" s="4" t="s">
         <v>0</v>
+      </c>
+      <c r="Z31" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA31" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="AB31" s="4" t="s">
         <v>76</v>
@@ -5269,7 +5284,7 @@
         <v>14</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M32" s="4" t="s">
         <v>16</v>
@@ -5277,7 +5292,7 @@
       <c r="N32" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q32" s="4" t="s">
+      <c r="S32" s="4" t="s">
         <v>0</v>
       </c>
       <c r="AD32" s="4" t="s">
@@ -5316,7 +5331,7 @@
         <v>14</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M33" s="4" t="s">
         <v>16</v>
@@ -5324,7 +5339,7 @@
       <c r="N33" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q33" s="4" t="s">
+      <c r="S33" s="4" t="s">
         <v>0</v>
       </c>
       <c r="AD33" s="4" t="s">
@@ -5363,7 +5378,7 @@
         <v>14</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M34" s="4" t="s">
         <v>16</v>
@@ -5374,7 +5389,7 @@
       <c r="O34" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="Q34" s="4" t="s">
+      <c r="S34" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD34" s="4" t="s">
@@ -5413,7 +5428,7 @@
         <v>14</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M35" s="4" t="s">
         <v>16</v>
@@ -5424,7 +5439,7 @@
       <c r="O35" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="Q35" s="4" t="s">
+      <c r="S35" s="4" t="s">
         <v>0</v>
       </c>
       <c r="AD35" s="4" t="s">
@@ -5463,7 +5478,7 @@
         <v>14</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M36" s="4" t="s">
         <v>16</v>
@@ -5474,7 +5489,7 @@
       <c r="O36" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="Q36" s="4" t="s">
+      <c r="S36" s="4" t="s">
         <v>90</v>
       </c>
       <c r="AD36" s="4" t="s">
@@ -5513,7 +5528,7 @@
         <v>14</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L37"/>
       <c r="M37" s="4" t="s">
@@ -5522,7 +5537,7 @@
       <c r="N37" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q37" s="4" t="s">
+      <c r="S37" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD37" s="4" t="s">
@@ -5561,7 +5576,7 @@
         <v>14</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L38"/>
       <c r="M38" s="4" t="s">
@@ -5570,7 +5585,7 @@
       <c r="N38" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q38" s="4" t="s">
+      <c r="S38" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD38" s="4" t="s">
@@ -5609,7 +5624,7 @@
         <v>14</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L39"/>
       <c r="M39" s="4" t="s">
@@ -5618,7 +5633,7 @@
       <c r="N39" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q39" s="4" t="s">
+      <c r="S39" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD39" s="4" t="s">
@@ -5657,7 +5672,7 @@
         <v>14</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L40"/>
       <c r="M40" s="4" t="s">
@@ -5666,7 +5681,7 @@
       <c r="N40" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q40" s="4" t="s">
+      <c r="S40" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD40" s="4" t="s">
@@ -5705,7 +5720,7 @@
         <v>14</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L41"/>
       <c r="M41" s="4" t="s">
@@ -5714,7 +5729,7 @@
       <c r="N41" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q41" s="4" t="s">
+      <c r="S41" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD41" s="4" t="s">
@@ -5753,7 +5768,7 @@
         <v>14</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L42"/>
       <c r="M42" s="4" t="s">
@@ -5762,7 +5777,7 @@
       <c r="N42" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q42" s="4" t="s">
+      <c r="S42" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD42" s="4" t="s">
@@ -5801,7 +5816,7 @@
         <v>14</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L43"/>
       <c r="M43" s="4" t="s">
@@ -5810,7 +5825,7 @@
       <c r="N43" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q43" s="4" t="s">
+      <c r="S43" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD43" s="4" t="s">
@@ -5849,7 +5864,7 @@
         <v>14</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L44"/>
       <c r="M44" s="4" t="s">
@@ -5858,7 +5873,7 @@
       <c r="N44" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q44" s="4" t="s">
+      <c r="S44" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD44" s="4" t="s">
@@ -5897,7 +5912,7 @@
         <v>14</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L45"/>
       <c r="M45" s="4" t="s">
@@ -5906,7 +5921,7 @@
       <c r="N45" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q45" s="4" t="s">
+      <c r="S45" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD45" s="4" t="s">
@@ -5945,7 +5960,7 @@
         <v>14</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L46"/>
       <c r="M46" s="4" t="s">
@@ -5954,7 +5969,7 @@
       <c r="N46" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q46" s="4" t="s">
+      <c r="S46" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD46" s="4" t="s">
@@ -5993,7 +6008,7 @@
         <v>14</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L47"/>
       <c r="M47" s="4" t="s">
@@ -6005,10 +6020,10 @@
       <c r="O47" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="P47" s="4" t="s">
+      <c r="R47" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="Q47" s="4" t="s">
+      <c r="S47" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD47" s="4" t="s">
@@ -6050,7 +6065,7 @@
         <v>14</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L48"/>
       <c r="M48" s="4" t="s">
@@ -6062,7 +6077,7 @@
       <c r="O48" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="Q48" s="4" t="s">
+      <c r="S48" s="4" t="s">
         <v>0</v>
       </c>
       <c r="AD48" s="4" t="s">
@@ -6101,7 +6116,7 @@
         <v>14</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L49"/>
       <c r="M49" s="4" t="s">
@@ -6113,7 +6128,7 @@
       <c r="O49" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="Q49" s="4" t="s">
+      <c r="S49" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD49" s="4" t="s">
@@ -6152,7 +6167,7 @@
         <v>14</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L50"/>
       <c r="M50" s="4" t="s">
@@ -6164,7 +6179,7 @@
       <c r="O50" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="Q50" s="4" t="s">
+      <c r="S50" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD50" s="4" t="s">
@@ -6203,7 +6218,7 @@
         <v>14</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L51"/>
       <c r="M51" s="4" t="s">
@@ -6215,7 +6230,7 @@
       <c r="O51" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="Q51" s="4" t="s">
+      <c r="S51" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD51" s="4" t="s">
@@ -6254,7 +6269,7 @@
         <v>14</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L52"/>
       <c r="M52" s="4" t="s">
@@ -6266,7 +6281,7 @@
       <c r="O52" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="Q52" s="4" t="s">
+      <c r="S52" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD52" s="4" t="s">
@@ -6305,7 +6320,7 @@
         <v>14</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L53"/>
       <c r="M53" s="4" t="s">
@@ -6317,7 +6332,7 @@
       <c r="O53" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="Q53" s="4" t="s">
+      <c r="S53" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD53" s="4" t="s">
@@ -6356,7 +6371,7 @@
         <v>14</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L54"/>
       <c r="M54" s="4" t="s">
@@ -6368,7 +6383,7 @@
       <c r="O54" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="Q54" s="4" t="s">
+      <c r="S54" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD54" s="4" t="s">
@@ -6407,7 +6422,7 @@
         <v>14</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L55"/>
       <c r="M55" s="4" t="s">
@@ -6419,7 +6434,7 @@
       <c r="O55" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="Q55" s="4" t="s">
+      <c r="S55" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD55" s="4" t="s">
@@ -6458,7 +6473,7 @@
         <v>14</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L56"/>
       <c r="M56" s="4" t="s">
@@ -6470,7 +6485,7 @@
       <c r="O56" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="Q56" s="4" t="s">
+      <c r="S56" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD56" s="4" t="s">
@@ -6509,7 +6524,7 @@
         <v>14</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L57"/>
       <c r="M57" s="4" t="s">
@@ -6521,7 +6536,7 @@
       <c r="O57" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="Q57" s="4" t="s">
+      <c r="S57" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD57" s="4" t="s">
@@ -6560,7 +6575,7 @@
         <v>14</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L58"/>
       <c r="M58" s="4" t="s">
@@ -6572,7 +6587,7 @@
       <c r="O58" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="Q58" s="4" t="s">
+      <c r="S58" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD58" s="4" t="s">
@@ -6614,7 +6629,7 @@
         <v>14</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L59"/>
       <c r="M59" s="4" t="s">
@@ -6623,8 +6638,14 @@
       <c r="N59" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q59" s="4" t="s">
+      <c r="S59" s="4" t="s">
         <v>11</v>
+      </c>
+      <c r="Z59" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA59" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="AB59" s="4" t="s">
         <v>133</v>
@@ -6665,7 +6686,7 @@
         <v>14</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L60"/>
       <c r="M60" s="4" t="s">
@@ -6677,7 +6698,7 @@
       <c r="O60" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="Q60" s="4" t="s">
+      <c r="S60" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD60" s="4" t="s">
@@ -6716,7 +6737,7 @@
         <v>14</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L61"/>
       <c r="M61" s="4" t="s">
@@ -6728,7 +6749,7 @@
       <c r="O61" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="Q61" s="4" t="s">
+      <c r="S61" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD61" s="4" t="s">
@@ -6767,7 +6788,7 @@
         <v>14</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M62" s="4" t="s">
         <v>16</v>
@@ -6778,7 +6799,7 @@
       <c r="O62" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="Q62" s="4" t="s">
+      <c r="S62" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD62" s="4" t="s">
@@ -6817,7 +6838,7 @@
         <v>14</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M63" s="4" t="s">
         <v>16</v>
@@ -6828,7 +6849,7 @@
       <c r="O63" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="Q63" s="4" t="s">
+      <c r="S63" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD63" s="4" t="s">
@@ -6867,7 +6888,7 @@
         <v>14</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M64" s="4" t="s">
         <v>16</v>
@@ -6878,7 +6899,7 @@
       <c r="O64" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="Q64" s="4" t="s">
+      <c r="S64" s="4" t="s">
         <v>0</v>
       </c>
       <c r="Y64" s="4">

--- a/data/digitized_data/occurrence_data/raw_data/HJ-27-occ-entry.xlsx
+++ b/data/digitized_data/occurrence_data/raw_data/HJ-27-occ-entry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Emma/Desktop/LDP Internship/Harvey_Janszen_Legacy_Project/data/digitized_data/occurrence_data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAEF351-991D-FC46-8585-B0D959865859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031BFA37-13A2-F546-9222-20261CF482F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15320" xr2:uid="{6CD260D0-3248-EC4C-A246-EE521030FA00}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{6CD260D0-3248-EC4C-A246-EE521030FA00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2475,7 +2475,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="245">
   <si>
     <t>genus</t>
   </si>
@@ -3018,6 +3018,198 @@
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>unsure what Mb and Ct are - likely trees but not sure which species</t>
+  </si>
+  <si>
+    <t>ledge up forest, Pseudotsuga menziesii [verts]? to ct with Quercus garryana, Mb, and small Arbutus</t>
+  </si>
+  <si>
+    <t>Elymus glaucus</t>
+  </si>
+  <si>
+    <t>Melica harfordii</t>
+  </si>
+  <si>
+    <t>Bromus sterilis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">etc (underlined)after taxon name </t>
+  </si>
+  <si>
+    <t>Lonicera hispidula</t>
+  </si>
+  <si>
+    <t>Madia gra</t>
+  </si>
+  <si>
+    <t>Bromus st</t>
+  </si>
+  <si>
+    <t>Elym gla</t>
+  </si>
+  <si>
+    <t>Meli har</t>
+  </si>
+  <si>
+    <t>Vicia sativa</t>
+  </si>
+  <si>
+    <t>Loni his</t>
+  </si>
+  <si>
+    <t>Vici sat</t>
+  </si>
+  <si>
+    <t>Sanicula crassicaulis</t>
+  </si>
+  <si>
+    <t>Sani cra</t>
+  </si>
+  <si>
+    <t>poly 48</t>
+  </si>
+  <si>
+    <t>next [grassy?], poly 48</t>
+  </si>
+  <si>
+    <t>Allium sps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bromus sp. </t>
+  </si>
+  <si>
+    <t>with mixed [infolia]?</t>
+  </si>
+  <si>
+    <t>Selag wal</t>
+  </si>
+  <si>
+    <t>Racomitrium canescens</t>
+  </si>
+  <si>
+    <t>Collinsia p</t>
+  </si>
+  <si>
+    <t>poly 37</t>
+  </si>
+  <si>
+    <t>Quercus garryana woodland with clumps of Pseudotsuga menziesii</t>
+  </si>
+  <si>
+    <t>poly 52</t>
+  </si>
+  <si>
+    <t>Quercus garryana woodland</t>
+  </si>
+  <si>
+    <t>Cynosurus cristatus</t>
+  </si>
+  <si>
+    <t>Cyno cris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">first seen abundant </t>
+  </si>
+  <si>
+    <t>Festuca rubra</t>
+  </si>
+  <si>
+    <t>Quercus garryana woodland, mostly under trees</t>
+  </si>
+  <si>
+    <t>Sinapis arvensis</t>
+  </si>
+  <si>
+    <t>Lychnis coronaria</t>
+  </si>
+  <si>
+    <t>Lych cor</t>
+  </si>
+  <si>
+    <t>Silene coronaria</t>
+  </si>
+  <si>
+    <t>Quercus garryana woodland, under trees</t>
+  </si>
+  <si>
+    <t>Luzu cam</t>
+  </si>
+  <si>
+    <t>Luzula campestris</t>
+  </si>
+  <si>
+    <t>Quercus garryana woodland, under oaks</t>
+  </si>
+  <si>
+    <t>Cyst fra</t>
+  </si>
+  <si>
+    <t>Cystopteris fragilis</t>
+  </si>
+  <si>
+    <t>Quercus garryana woodland, foot of shaded cliffs</t>
+  </si>
+  <si>
+    <t>Heuc mic</t>
+  </si>
+  <si>
+    <t>Heuchera micrantha</t>
+  </si>
+  <si>
+    <t>Quercus garryana woodland, ridge top</t>
+  </si>
+  <si>
+    <t>[Mohr]? mac</t>
+  </si>
+  <si>
+    <t>cannot decipher taxon name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Galiano Island; Mount Sutil </t>
+  </si>
+  <si>
+    <t>plot 01</t>
+  </si>
+  <si>
+    <t>Cyti sco</t>
+  </si>
+  <si>
+    <t>Cytisus scoparius</t>
+  </si>
+  <si>
+    <t>Brom sp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">question mark next to taxon name Bromus sp. </t>
+  </si>
+  <si>
+    <t>Bromus c.f.</t>
+  </si>
+  <si>
+    <t>Eryth ore</t>
+  </si>
+  <si>
+    <t>Erythronium oregonum</t>
+  </si>
+  <si>
+    <t>Allium acuminatum</t>
+  </si>
+  <si>
+    <t>Luzula multiflora</t>
+  </si>
+  <si>
+    <t>Ramu occi</t>
+  </si>
+  <si>
+    <t>Ranunculus occidentalis</t>
+  </si>
+  <si>
+    <t>Cera arv</t>
+  </si>
+  <si>
+    <t>Cerastium arvense</t>
   </si>
 </sst>
 </file>
@@ -3159,7 +3351,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3180,6 +3372,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3501,12 +3696,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E2B542-A597-DF4D-A726-D9C00BB4087B}">
-  <dimension ref="A1:AF64"/>
+  <dimension ref="A1:AF102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="137" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="AB31" sqref="AB31"/>
+      <selection pane="bottomLeft" activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6909,6 +7104,1564 @@
         <v>18</v>
       </c>
     </row>
+    <row r="65" spans="1:32" ht="85" x14ac:dyDescent="0.2">
+      <c r="A65" s="4">
+        <v>4</v>
+      </c>
+      <c r="B65" s="4">
+        <v>1</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G65" s="4">
+        <v>20040312</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="O65" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="R65" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF65" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="66" spans="1:32" ht="85" x14ac:dyDescent="0.2">
+      <c r="A66" s="4">
+        <v>4</v>
+      </c>
+      <c r="B66" s="4">
+        <v>2</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G66" s="4">
+        <v>20040312</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K66" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="O66" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="R66" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF66" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="67" spans="1:32" ht="85" x14ac:dyDescent="0.2">
+      <c r="A67" s="4">
+        <v>4</v>
+      </c>
+      <c r="B67" s="4">
+        <v>3</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G67" s="4">
+        <v>20040312</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="O67" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="R67" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB67" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF67" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="68" spans="1:32" ht="85" x14ac:dyDescent="0.2">
+      <c r="A68" s="4">
+        <v>4</v>
+      </c>
+      <c r="B68" s="4">
+        <v>4</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G68" s="4">
+        <v>20040312</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="O68" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="R68" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF68" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="69" spans="1:32" ht="85" x14ac:dyDescent="0.2">
+      <c r="A69" s="4">
+        <v>4</v>
+      </c>
+      <c r="B69" s="4">
+        <v>5</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G69" s="4">
+        <v>20040312</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="O69" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="R69" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF69" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="70" spans="1:32" ht="85" x14ac:dyDescent="0.2">
+      <c r="A70" s="4">
+        <v>4</v>
+      </c>
+      <c r="B70" s="4">
+        <v>6</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G70" s="4">
+        <v>20040312</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K70" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="O70" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="R70" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF70" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="71" spans="1:32" ht="85" x14ac:dyDescent="0.2">
+      <c r="A71" s="4">
+        <v>4</v>
+      </c>
+      <c r="B71" s="4">
+        <v>7</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G71" s="4">
+        <v>20040312</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="O71" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="R71" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF71" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="72" spans="1:32" ht="85" x14ac:dyDescent="0.2">
+      <c r="A72" s="4">
+        <v>4</v>
+      </c>
+      <c r="B72" s="4">
+        <v>8</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G72" s="4">
+        <v>20040312</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K72" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="O72" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="R72" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF72" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="73" spans="1:32" ht="85" x14ac:dyDescent="0.2">
+      <c r="A73" s="4">
+        <v>4</v>
+      </c>
+      <c r="B73" s="4">
+        <v>9</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G73" s="4">
+        <v>20040312</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K73" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="O73" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="R73" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB73" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF73" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="74" spans="1:32" ht="85" x14ac:dyDescent="0.2">
+      <c r="A74" s="4">
+        <v>4</v>
+      </c>
+      <c r="B74" s="4">
+        <v>10</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G74" s="4">
+        <v>20040312</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K74" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="O74" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="R74" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF74" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="75" spans="1:32" ht="85" x14ac:dyDescent="0.2">
+      <c r="A75" s="4">
+        <v>4</v>
+      </c>
+      <c r="B75" s="4">
+        <v>11</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G75" s="4">
+        <v>20040312</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="O75" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="R75" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF75" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="76" spans="1:32" ht="85" x14ac:dyDescent="0.2">
+      <c r="A76" s="4">
+        <v>4</v>
+      </c>
+      <c r="B76" s="4">
+        <v>12</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G76" s="4">
+        <v>20040312</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K76" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="O76" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="R76" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF76" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="77" spans="1:32" ht="85" x14ac:dyDescent="0.2">
+      <c r="A77" s="4">
+        <v>4</v>
+      </c>
+      <c r="B77" s="4">
+        <v>13</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G77" s="4">
+        <v>20040312</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="O77" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="R77" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF77" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="78" spans="1:32" ht="85" x14ac:dyDescent="0.2">
+      <c r="A78" s="4">
+        <v>4</v>
+      </c>
+      <c r="B78" s="4">
+        <v>14</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G78" s="4">
+        <v>20040312</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K78" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="O78" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="R78" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF78" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="79" spans="1:32" ht="51" x14ac:dyDescent="0.2">
+      <c r="A79" s="4">
+        <v>4</v>
+      </c>
+      <c r="B79" s="4">
+        <v>15</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G79" s="4">
+        <v>20040312</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J79" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K79" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="O79" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="R79" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="80" spans="1:32" ht="51" x14ac:dyDescent="0.2">
+      <c r="A80" s="4">
+        <v>4</v>
+      </c>
+      <c r="B80" s="4">
+        <v>16</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G80" s="4">
+        <v>20040312</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K80" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="O80" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="R80" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="81" spans="1:32" ht="34" x14ac:dyDescent="0.2">
+      <c r="A81" s="4">
+        <v>4</v>
+      </c>
+      <c r="B81" s="4">
+        <v>17</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G81" s="4">
+        <v>20040312</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J81" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K81" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="O81" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="R81" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB81" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="82" spans="1:32" ht="34" x14ac:dyDescent="0.2">
+      <c r="A82" s="4">
+        <v>4</v>
+      </c>
+      <c r="B82" s="4">
+        <v>18</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="G82" s="4">
+        <v>20040312</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K82" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="O82" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="R82" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="83" spans="1:32" ht="51" x14ac:dyDescent="0.2">
+      <c r="A83" s="4">
+        <v>5</v>
+      </c>
+      <c r="B83" s="4">
+        <v>1</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G83" s="4">
+        <v>20040312</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J83" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K83" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="O83" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="R83" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="84" spans="1:32" ht="51" x14ac:dyDescent="0.2">
+      <c r="A84" s="4">
+        <v>5</v>
+      </c>
+      <c r="B84" s="4">
+        <v>2</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="G84" s="4">
+        <v>20040312</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J84" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K84" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="O84" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="R84" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="85" spans="1:32" ht="51" x14ac:dyDescent="0.2">
+      <c r="A85" s="4">
+        <v>5</v>
+      </c>
+      <c r="B85" s="4">
+        <v>3</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="G85" s="4">
+        <v>20040312</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J85" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K85" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="O85" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="R85" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="86" spans="1:32" ht="51" x14ac:dyDescent="0.2">
+      <c r="A86" s="4">
+        <v>5</v>
+      </c>
+      <c r="B86" s="4">
+        <v>4</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G86" s="4">
+        <v>20040312</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J86" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K86" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="O86" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="R86" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="87" spans="1:32" ht="34" x14ac:dyDescent="0.2">
+      <c r="A87" s="4">
+        <v>5</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="G87" s="4">
+        <v>20040312</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K87" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="O87" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="R87" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="88" spans="1:32" ht="34" x14ac:dyDescent="0.2">
+      <c r="A88" s="4">
+        <v>5</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="G88" s="4">
+        <v>20040312</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K88" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="O88" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="R88" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="89" spans="1:32" ht="51" x14ac:dyDescent="0.2">
+      <c r="A89" s="4">
+        <v>5</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="G89" s="4">
+        <v>20040312</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K89" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="O89" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="R89" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="90" spans="1:32" ht="34" x14ac:dyDescent="0.2">
+      <c r="A90" s="4">
+        <v>5</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G90" s="4">
+        <v>20040312</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J90" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K90" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="O90" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="R90" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF90" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="91" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A91" s="4">
+        <v>5</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="G91" s="4">
+        <v>20040324</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J91" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K91" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R91" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y91" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A92" s="4">
+        <v>5</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G92" s="4">
+        <v>20040324</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J92" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K92" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R92" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y92" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" s="4">
+        <v>5</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G93" s="4">
+        <v>20040324</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J93" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K93" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R93" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y93" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:32" ht="68" x14ac:dyDescent="0.2">
+      <c r="A94" s="4">
+        <v>5</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G94" s="4">
+        <v>20040324</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J94" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K94" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="L94" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="R94" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB94" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="95" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A95" s="4">
+        <v>5</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G95" s="4">
+        <v>20040324</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J95" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K95" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R95" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y95" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A96" s="4">
+        <v>5</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G96" s="4">
+        <v>20040324</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J96" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K96" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R96" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y96" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A97" s="4">
+        <v>5</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="G97" s="4">
+        <v>20040324</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J97" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K97" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R97" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y97" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A98" s="4">
+        <v>5</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="G98" s="4">
+        <v>20040324</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J98" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K98" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R98" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y98" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A99" s="4">
+        <v>5</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G99" s="4">
+        <v>20040324</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J99" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K99" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R99" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y99" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A100" s="4">
+        <v>5</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="G100" s="4">
+        <v>20040324</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J100" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K100" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R100" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y100" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A101" s="4">
+        <v>5</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G101" s="4">
+        <v>20040324</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J101" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K101" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R101" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y101" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A102" s="4">
+        <v>5</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="G102" s="4">
+        <v>20040324</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J102" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K102" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R102" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y102" s="4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/digitized_data/occurrence_data/raw_data/HJ-27-occ-entry.xlsx
+++ b/data/digitized_data/occurrence_data/raw_data/HJ-27-occ-entry.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Emma/Desktop/LDP Internship/Harvey_Janszen_Legacy_Project/data/digitized_data/occurrence_data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031BFA37-13A2-F546-9222-20261CF482F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AA3A6F-1E9C-9147-9244-62D6FAF6EF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{6CD260D0-3248-EC4C-A246-EE521030FA00}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19560" xr2:uid="{6CD260D0-3248-EC4C-A246-EE521030FA00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2475,7 +2475,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="244">
   <si>
     <t>genus</t>
   </si>
@@ -2522,15 +2522,9 @@
     <t>British Columbia</t>
   </si>
   <si>
-    <t>Mount Sutil, Galiano Island</t>
-  </si>
-  <si>
     <t>Southern Gulf Islands</t>
   </si>
   <si>
-    <t>Galiano</t>
-  </si>
-  <si>
     <t>Harvey Janszen</t>
   </si>
   <si>
@@ -3210,6 +3204,9 @@
   </si>
   <si>
     <t>Cerastium arvense</t>
+  </si>
+  <si>
+    <t>Galiano Island; Mount Sutil</t>
   </si>
 </sst>
 </file>
@@ -3351,7 +3348,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3372,9 +3369,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3400,7 +3394,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3688,7 +3682,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3698,10 +3692,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E2B542-A597-DF4D-A726-D9C00BB4087B}">
   <dimension ref="A1:AF102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="157" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="D106" sqref="D106"/>
+      <selection pane="bottomLeft" activeCell="H94" sqref="H94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3743,43 +3737,43 @@
   <sheetData>
     <row r="1" spans="1:32" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>173</v>
-      </c>
       <c r="L1" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>4</v>
@@ -3788,10 +3782,10 @@
         <v>1</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>2</v>
@@ -3800,7 +3794,7 @@
         <v>12</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="U1" s="3" t="s">
         <v>5</v>
@@ -3809,28 +3803,28 @@
         <v>6</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="Y1" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA1" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC1" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="AA1" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>160</v>
-      </c>
       <c r="AD1" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AE1" s="2" t="s">
         <v>7</v>
@@ -3853,7 +3847,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -3862,7 +3856,7 @@
         <v>20040212</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>15</v>
+        <v>243</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>13</v>
@@ -3871,11 +3865,11 @@
         <v>14</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L2"/>
       <c r="M2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>8</v>
@@ -3887,13 +3881,13 @@
       <c r="W2"/>
       <c r="X2"/>
       <c r="Z2" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AD2" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF2"/>
     </row>
@@ -3905,22 +3899,22 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G3" s="4">
         <v>20040212</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>15</v>
+        <v>243</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>13</v>
@@ -3929,17 +3923,17 @@
         <v>14</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L3"/>
       <c r="M3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="S3" s="4" t="s">
         <v>11</v>
@@ -3947,7 +3941,7 @@
       <c r="W3"/>
       <c r="X3"/>
       <c r="AD3" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF3"/>
     </row>
@@ -3959,22 +3953,22 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G4" s="4">
         <v>20040212</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>15</v>
+        <v>243</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>13</v>
@@ -3983,11 +3977,11 @@
         <v>14</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L4"/>
       <c r="M4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>8</v>
@@ -3996,7 +3990,7 @@
         <v>11</v>
       </c>
       <c r="AD4" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -4007,22 +4001,22 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G5" s="4">
         <v>20040212</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>15</v>
+        <v>243</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>13</v>
@@ -4031,23 +4025,23 @@
         <v>14</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L5"/>
       <c r="M5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="S5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD5" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF5"/>
     </row>
@@ -4059,22 +4053,22 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G6" s="4">
         <v>20040212</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>15</v>
+        <v>243</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>13</v>
@@ -4083,26 +4077,26 @@
         <v>14</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L6"/>
       <c r="M6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="S6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD6" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF6"/>
     </row>
@@ -4114,22 +4108,22 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G7" s="4">
         <v>20040212</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>15</v>
+        <v>243</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>13</v>
@@ -4138,11 +4132,11 @@
         <v>14</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L7"/>
       <c r="M7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N7" s="4" t="s">
         <v>8</v>
@@ -4151,7 +4145,7 @@
         <v>11</v>
       </c>
       <c r="AD7" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -4162,22 +4156,22 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G8" s="4">
         <v>20040212</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>15</v>
+        <v>243</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>13</v>
@@ -4186,23 +4180,23 @@
         <v>14</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L8"/>
       <c r="M8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="S8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD8" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF8"/>
     </row>
@@ -4214,22 +4208,22 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G9" s="4">
         <v>20040212</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>15</v>
+        <v>243</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>13</v>
@@ -4238,11 +4232,11 @@
         <v>14</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L9"/>
       <c r="M9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N9" s="4" t="s">
         <v>8</v>
@@ -4251,7 +4245,7 @@
         <v>11</v>
       </c>
       <c r="AD9" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF9"/>
     </row>
@@ -4263,22 +4257,22 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
         <v>40</v>
       </c>
-      <c r="D10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" t="s">
-        <v>42</v>
-      </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G10" s="4">
         <v>20040212</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>15</v>
+        <v>243</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>13</v>
@@ -4287,23 +4281,23 @@
         <v>14</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L10"/>
       <c r="M10" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="S10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD10" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF10"/>
     </row>
@@ -4315,22 +4309,22 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G11" s="4">
         <v>20040212</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>15</v>
+        <v>243</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>13</v>
@@ -4339,24 +4333,24 @@
         <v>14</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L11"/>
       <c r="M11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N11" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="R11"/>
       <c r="S11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD11" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF11"/>
     </row>
@@ -4368,22 +4362,22 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>45</v>
-      </c>
-      <c r="D12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" t="s">
-        <v>47</v>
       </c>
       <c r="G12" s="4">
         <v>20040212</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>15</v>
+        <v>243</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>13</v>
@@ -4392,32 +4386,32 @@
         <v>14</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L12"/>
       <c r="M12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="S12" s="4" t="s">
         <v>11</v>
       </c>
       <c r="Z12" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AA12" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AD12" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF12"/>
     </row>
@@ -4429,22 +4423,22 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
         <v>48</v>
-      </c>
-      <c r="D13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" t="s">
-        <v>50</v>
       </c>
       <c r="G13" s="4">
         <v>20040212</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>15</v>
+        <v>243</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>13</v>
@@ -4453,28 +4447,28 @@
         <v>14</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L13"/>
       <c r="M13" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N13" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="R13"/>
       <c r="S13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AB13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AC13"/>
       <c r="AD13" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF13"/>
     </row>
@@ -4486,22 +4480,22 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G14" s="4">
         <v>20040312</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>13</v>
@@ -4510,24 +4504,24 @@
         <v>14</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L14"/>
       <c r="M14" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N14" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="R14"/>
       <c r="S14" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD14" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF14"/>
     </row>
@@ -4539,22 +4533,22 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" t="s">
         <v>45</v>
-      </c>
-      <c r="D15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" t="s">
-        <v>47</v>
       </c>
       <c r="G15" s="4">
         <v>20040312</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>13</v>
@@ -4563,24 +4557,24 @@
         <v>14</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L15"/>
       <c r="M15" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="R15"/>
       <c r="S15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD15" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF15"/>
     </row>
@@ -4592,22 +4586,22 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
         <v>48</v>
-      </c>
-      <c r="D16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" t="s">
-        <v>50</v>
       </c>
       <c r="G16" s="4">
         <v>20040312</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>13</v>
@@ -4616,24 +4610,24 @@
         <v>14</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L16"/>
       <c r="M16" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N16" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="R16"/>
       <c r="S16" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD16" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF16"/>
     </row>
@@ -4645,22 +4639,22 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" t="s">
         <v>53</v>
-      </c>
-      <c r="D17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" t="s">
-        <v>55</v>
       </c>
       <c r="G17" s="4">
         <v>20040312</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>13</v>
@@ -4669,24 +4663,24 @@
         <v>14</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L17"/>
       <c r="M17" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N17" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="R17"/>
       <c r="S17" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD17" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF17"/>
     </row>
@@ -4698,22 +4692,22 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G18" s="4">
         <v>20040312</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>13</v>
@@ -4722,24 +4716,24 @@
         <v>14</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L18"/>
       <c r="M18" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N18" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="R18"/>
       <c r="S18" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD18" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF18"/>
     </row>
@@ -4751,22 +4745,22 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G19" s="4">
         <v>20040312</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>13</v>
@@ -4775,24 +4769,24 @@
         <v>14</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L19"/>
       <c r="M19" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N19" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="R19"/>
       <c r="S19" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD19" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF19"/>
     </row>
@@ -4804,22 +4798,22 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G20" s="4">
         <v>20040312</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>13</v>
@@ -4828,24 +4822,24 @@
         <v>14</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L20"/>
       <c r="M20" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N20" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="R20"/>
       <c r="S20" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD20" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF20"/>
     </row>
@@ -4857,22 +4851,22 @@
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G21" s="4">
         <v>20040312</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>13</v>
@@ -4881,24 +4875,24 @@
         <v>14</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L21"/>
       <c r="M21" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N21" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="R21"/>
       <c r="S21" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD21" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF21"/>
     </row>
@@ -4910,22 +4904,22 @@
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G22" s="4">
         <v>20040312</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>13</v>
@@ -4934,24 +4928,24 @@
         <v>14</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L22"/>
       <c r="M22" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N22" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="R22"/>
       <c r="S22" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD22" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF22"/>
     </row>
@@ -4963,22 +4957,22 @@
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G23" s="4">
         <v>20040312</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>13</v>
@@ -4987,24 +4981,24 @@
         <v>14</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L23"/>
       <c r="M23" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N23" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="R23"/>
       <c r="S23" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD23" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF23"/>
     </row>
@@ -5016,22 +5010,22 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F24" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G24" s="4">
         <v>20040312</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>13</v>
@@ -5040,27 +5034,27 @@
         <v>14</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L24"/>
       <c r="M24" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N24" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="R24"/>
       <c r="S24" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD24" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5071,22 +5065,22 @@
         <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G25" s="4">
         <v>20040312</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>13</v>
@@ -5095,24 +5089,24 @@
         <v>14</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L25"/>
       <c r="M25" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N25" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="R25"/>
       <c r="S25" s="4" t="s">
         <v>0</v>
       </c>
       <c r="AD25" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF25"/>
     </row>
@@ -5124,22 +5118,22 @@
         <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" t="s">
         <v>59</v>
-      </c>
-      <c r="F26" t="s">
-        <v>61</v>
       </c>
       <c r="G26" s="4">
         <v>20040312</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>13</v>
@@ -5148,24 +5142,24 @@
         <v>14</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L26"/>
       <c r="M26" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N26" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R26"/>
       <c r="S26" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD26" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF26"/>
     </row>
@@ -5177,22 +5171,22 @@
         <v>14</v>
       </c>
       <c r="C27" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" t="s">
+        <v>145</v>
+      </c>
+      <c r="E27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" t="s">
         <v>146</v>
-      </c>
-      <c r="D27" t="s">
-        <v>147</v>
-      </c>
-      <c r="E27" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" t="s">
-        <v>148</v>
       </c>
       <c r="G27" s="4">
         <v>20040312</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>13</v>
@@ -5201,24 +5195,24 @@
         <v>14</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L27"/>
       <c r="M27" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N27" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="R27"/>
       <c r="S27" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD27" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF27"/>
     </row>
@@ -5230,22 +5224,22 @@
         <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G28" s="4">
         <v>20040312</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>13</v>
@@ -5254,26 +5248,26 @@
         <v>14</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L28"/>
       <c r="M28" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N28" s="4" t="s">
         <v>8</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="S28" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD28" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF28" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:32" ht="51" x14ac:dyDescent="0.2">
@@ -5284,22 +5278,22 @@
         <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G29" s="4">
         <v>20040312</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>13</v>
@@ -5308,26 +5302,26 @@
         <v>14</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L29"/>
       <c r="M29" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N29" s="4" t="s">
         <v>8</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="S29" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD29" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF29" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:32" ht="51" x14ac:dyDescent="0.2">
@@ -5338,22 +5332,22 @@
         <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D30" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F30" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G30" s="4">
         <v>20040312</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>13</v>
@@ -5362,26 +5356,26 @@
         <v>14</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L30"/>
       <c r="M30" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N30" s="4" t="s">
         <v>8</v>
       </c>
       <c r="R30" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="S30" s="4" t="s">
         <v>0</v>
       </c>
       <c r="AD30" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF30" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="51" x14ac:dyDescent="0.2">
@@ -5392,22 +5386,22 @@
         <v>18</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G31" s="4">
         <v>20040312</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>13</v>
@@ -5416,35 +5410,35 @@
         <v>14</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L31"/>
       <c r="M31" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N31" s="4" t="s">
         <v>8</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S31" s="4" t="s">
         <v>0</v>
       </c>
       <c r="Z31" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AA31" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AB31" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AD31" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF31" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5455,22 +5449,22 @@
         <v>19</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G32" s="4">
         <v>20040312</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>13</v>
@@ -5479,10 +5473,10 @@
         <v>14</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N32" s="4" t="s">
         <v>8</v>
@@ -5491,7 +5485,7 @@
         <v>0</v>
       </c>
       <c r="AD32" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5502,22 +5496,22 @@
         <v>20</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G33" s="4">
         <v>20040312</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>13</v>
@@ -5526,10 +5520,10 @@
         <v>14</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N33" s="4" t="s">
         <v>8</v>
@@ -5538,7 +5532,7 @@
         <v>0</v>
       </c>
       <c r="AD33" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5549,22 +5543,22 @@
         <v>21</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G34" s="4">
         <v>20040312</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>13</v>
@@ -5573,22 +5567,22 @@
         <v>14</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N34" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S34" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD34" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5599,22 +5593,22 @@
         <v>22</v>
       </c>
       <c r="C35" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="G35" s="4">
         <v>20040312</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>13</v>
@@ -5623,22 +5617,22 @@
         <v>14</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N35" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S35" s="4" t="s">
         <v>0</v>
       </c>
       <c r="AD35" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5649,22 +5643,22 @@
         <v>1</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G36" s="4">
         <v>20040312</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>13</v>
@@ -5673,22 +5667,22 @@
         <v>14</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N36" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S36" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AD36" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5699,22 +5693,22 @@
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D37" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E37" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F37" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G37" s="4">
         <v>20040312</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>13</v>
@@ -5723,11 +5717,11 @@
         <v>14</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L37"/>
       <c r="M37" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N37" s="4" t="s">
         <v>8</v>
@@ -5736,7 +5730,7 @@
         <v>11</v>
       </c>
       <c r="AD37" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5747,22 +5741,22 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D38" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E38" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F38" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G38" s="4">
         <v>20040312</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>13</v>
@@ -5771,11 +5765,11 @@
         <v>14</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L38"/>
       <c r="M38" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N38" s="4" t="s">
         <v>8</v>
@@ -5784,7 +5778,7 @@
         <v>11</v>
       </c>
       <c r="AD38" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5795,22 +5789,22 @@
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D39" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E39" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F39" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G39" s="4">
         <v>20040312</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>13</v>
@@ -5819,11 +5813,11 @@
         <v>14</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L39"/>
       <c r="M39" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N39" s="4" t="s">
         <v>8</v>
@@ -5832,7 +5826,7 @@
         <v>11</v>
       </c>
       <c r="AD39" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5843,22 +5837,22 @@
         <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E40" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G40" s="4">
         <v>20040312</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>13</v>
@@ -5867,11 +5861,11 @@
         <v>14</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L40"/>
       <c r="M40" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N40" s="4" t="s">
         <v>8</v>
@@ -5880,7 +5874,7 @@
         <v>11</v>
       </c>
       <c r="AD40" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5891,22 +5885,22 @@
         <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D41" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E41" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F41" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G41" s="4">
         <v>20040312</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>13</v>
@@ -5915,11 +5909,11 @@
         <v>14</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L41"/>
       <c r="M41" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N41" s="4" t="s">
         <v>8</v>
@@ -5928,7 +5922,7 @@
         <v>11</v>
       </c>
       <c r="AD41" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5939,22 +5933,22 @@
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D42" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E42" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F42" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G42" s="4">
         <v>20040312</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>13</v>
@@ -5963,11 +5957,11 @@
         <v>14</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L42"/>
       <c r="M42" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N42" s="4" t="s">
         <v>8</v>
@@ -5976,7 +5970,7 @@
         <v>11</v>
       </c>
       <c r="AD42" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -5987,22 +5981,22 @@
         <v>8</v>
       </c>
       <c r="C43" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" t="s">
+        <v>99</v>
+      </c>
+      <c r="E43" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" t="s">
         <v>100</v>
-      </c>
-      <c r="D43" t="s">
-        <v>101</v>
-      </c>
-      <c r="E43" t="s">
-        <v>25</v>
-      </c>
-      <c r="F43" t="s">
-        <v>102</v>
       </c>
       <c r="G43" s="4">
         <v>20040312</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>13</v>
@@ -6011,11 +6005,11 @@
         <v>14</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L43"/>
       <c r="M43" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N43" s="4" t="s">
         <v>8</v>
@@ -6024,7 +6018,7 @@
         <v>11</v>
       </c>
       <c r="AD43" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -6035,22 +6029,22 @@
         <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D44" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E44" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F44" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G44" s="4">
         <v>20040312</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>13</v>
@@ -6059,11 +6053,11 @@
         <v>14</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L44"/>
       <c r="M44" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N44" s="4" t="s">
         <v>8</v>
@@ -6072,7 +6066,7 @@
         <v>11</v>
       </c>
       <c r="AD44" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -6083,22 +6077,22 @@
         <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D45" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E45" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F45" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G45" s="4">
         <v>20040312</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>13</v>
@@ -6107,11 +6101,11 @@
         <v>14</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L45"/>
       <c r="M45" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N45" s="4" t="s">
         <v>8</v>
@@ -6120,7 +6114,7 @@
         <v>11</v>
       </c>
       <c r="AD45" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -6131,22 +6125,22 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" t="s">
         <v>23</v>
       </c>
-      <c r="E46" t="s">
-        <v>25</v>
-      </c>
       <c r="F46" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G46" s="4">
         <v>20040312</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>13</v>
@@ -6155,11 +6149,11 @@
         <v>14</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L46"/>
       <c r="M46" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N46" s="4" t="s">
         <v>8</v>
@@ -6168,7 +6162,7 @@
         <v>11</v>
       </c>
       <c r="AD46" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:32" ht="34" x14ac:dyDescent="0.2">
@@ -6179,22 +6173,22 @@
         <v>12</v>
       </c>
       <c r="C47" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D47" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E47" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F47" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G47" s="4">
         <v>20040312</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>13</v>
@@ -6203,29 +6197,29 @@
         <v>14</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L47"/>
       <c r="M47" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N47" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O47" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="R47" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="S47" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD47" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF47" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="48" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -6236,22 +6230,22 @@
         <v>13</v>
       </c>
       <c r="C48" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D48" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E48" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F48" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G48" s="4">
         <v>20040312</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>13</v>
@@ -6260,23 +6254,23 @@
         <v>14</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L48"/>
       <c r="M48" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N48" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O48" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="S48" s="4" t="s">
         <v>0</v>
       </c>
       <c r="AD48" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -6287,22 +6281,22 @@
         <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D49" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E49" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F49" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G49" s="4">
         <v>20040312</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>13</v>
@@ -6311,23 +6305,23 @@
         <v>14</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L49"/>
       <c r="M49" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N49" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O49" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="S49" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD49" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -6338,22 +6332,22 @@
         <v>15</v>
       </c>
       <c r="C50" t="s">
+        <v>109</v>
+      </c>
+      <c r="D50" t="s">
+        <v>110</v>
+      </c>
+      <c r="E50" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" t="s">
         <v>111</v>
-      </c>
-      <c r="D50" t="s">
-        <v>112</v>
-      </c>
-      <c r="E50" t="s">
-        <v>24</v>
-      </c>
-      <c r="F50" t="s">
-        <v>113</v>
       </c>
       <c r="G50" s="4">
         <v>20040312</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>13</v>
@@ -6362,23 +6356,23 @@
         <v>14</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L50"/>
       <c r="M50" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N50" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O50" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="S50" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD50" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -6389,22 +6383,22 @@
         <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D51" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E51" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F51" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G51" s="4">
         <v>20040312</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>13</v>
@@ -6413,23 +6407,23 @@
         <v>14</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L51"/>
       <c r="M51" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N51" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O51" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="S51" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD51" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -6440,22 +6434,22 @@
         <v>17</v>
       </c>
       <c r="C52" t="s">
+        <v>43</v>
+      </c>
+      <c r="D52" t="s">
+        <v>44</v>
+      </c>
+      <c r="E52" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" t="s">
         <v>45</v>
-      </c>
-      <c r="D52" t="s">
-        <v>46</v>
-      </c>
-      <c r="E52" t="s">
-        <v>24</v>
-      </c>
-      <c r="F52" t="s">
-        <v>47</v>
       </c>
       <c r="G52" s="4">
         <v>20040312</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>13</v>
@@ -6464,23 +6458,23 @@
         <v>14</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L52"/>
       <c r="M52" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N52" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O52" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="S52" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD52" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -6491,22 +6485,22 @@
         <v>18</v>
       </c>
       <c r="C53" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D53" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E53" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F53" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G53" s="4">
         <v>20040312</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>13</v>
@@ -6515,23 +6509,23 @@
         <v>14</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L53"/>
       <c r="M53" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N53" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O53" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="S53" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD53" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -6542,22 +6536,22 @@
         <v>19</v>
       </c>
       <c r="C54" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D54" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E54" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F54" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G54" s="4">
         <v>20040312</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>13</v>
@@ -6566,23 +6560,23 @@
         <v>14</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L54"/>
       <c r="M54" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N54" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O54" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="S54" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD54" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -6593,22 +6587,22 @@
         <v>20</v>
       </c>
       <c r="C55" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D55" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E55" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F55" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G55" s="4">
         <v>20040312</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>13</v>
@@ -6617,23 +6611,23 @@
         <v>14</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L55"/>
       <c r="M55" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N55" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O55" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="S55" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD55" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -6644,22 +6638,22 @@
         <v>21</v>
       </c>
       <c r="C56" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D56" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F56" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G56" s="4">
         <v>20040312</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I56" s="4" t="s">
         <v>13</v>
@@ -6668,23 +6662,23 @@
         <v>14</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L56"/>
       <c r="M56" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N56" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O56" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="S56" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD56" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -6695,22 +6689,22 @@
         <v>23</v>
       </c>
       <c r="C57" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D57" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E57" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F57" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G57" s="4">
         <v>20040312</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I57" s="4" t="s">
         <v>13</v>
@@ -6719,23 +6713,23 @@
         <v>14</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L57"/>
       <c r="M57" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N57" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O57" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="S57" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD57" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -6746,22 +6740,22 @@
         <v>24</v>
       </c>
       <c r="C58" t="s">
+        <v>119</v>
+      </c>
+      <c r="D58" t="s">
+        <v>120</v>
+      </c>
+      <c r="E58" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58" t="s">
         <v>121</v>
-      </c>
-      <c r="D58" t="s">
-        <v>122</v>
-      </c>
-      <c r="E58" t="s">
-        <v>24</v>
-      </c>
-      <c r="F58" t="s">
-        <v>123</v>
       </c>
       <c r="G58" s="4">
         <v>20040312</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I58" s="4" t="s">
         <v>13</v>
@@ -6770,26 +6764,26 @@
         <v>14</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L58"/>
       <c r="M58" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N58" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O58" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="S58" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD58" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF58" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="59" spans="1:32" ht="34" x14ac:dyDescent="0.2">
@@ -6800,22 +6794,22 @@
         <v>25</v>
       </c>
       <c r="C59" t="s">
+        <v>122</v>
+      </c>
+      <c r="D59" t="s">
+        <v>123</v>
+      </c>
+      <c r="E59" t="s">
+        <v>40</v>
+      </c>
+      <c r="F59" t="s">
         <v>124</v>
-      </c>
-      <c r="D59" t="s">
-        <v>125</v>
-      </c>
-      <c r="E59" t="s">
-        <v>42</v>
-      </c>
-      <c r="F59" t="s">
-        <v>126</v>
       </c>
       <c r="G59" s="4">
         <v>20040312</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I59" s="4" t="s">
         <v>13</v>
@@ -6824,11 +6818,11 @@
         <v>14</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L59"/>
       <c r="M59" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N59" s="4" t="s">
         <v>8</v>
@@ -6837,16 +6831,16 @@
         <v>11</v>
       </c>
       <c r="Z59" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AA59" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AB59" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AD59" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -6857,22 +6851,22 @@
         <v>26</v>
       </c>
       <c r="C60" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D60" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E60" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F60" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G60" s="4">
         <v>20040312</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I60" s="4" t="s">
         <v>13</v>
@@ -6881,23 +6875,23 @@
         <v>14</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L60"/>
       <c r="M60" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N60" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O60" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S60" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD60" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -6908,22 +6902,22 @@
         <v>27</v>
       </c>
       <c r="C61" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D61" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E61" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F61" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G61" s="4">
         <v>20040312</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I61" s="4" t="s">
         <v>13</v>
@@ -6932,23 +6926,23 @@
         <v>14</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L61"/>
       <c r="M61" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N61" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O61" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S61" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD61" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -6959,22 +6953,22 @@
         <v>28</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G62" s="4">
         <v>20040312</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I62" s="4" t="s">
         <v>13</v>
@@ -6983,22 +6977,22 @@
         <v>14</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N62" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O62" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="S62" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD62" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -7009,22 +7003,22 @@
         <v>29</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G63" s="4">
         <v>20040312</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I63" s="4" t="s">
         <v>13</v>
@@ -7033,22 +7027,22 @@
         <v>14</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N63" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O63" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="S63" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD63" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -7059,22 +7053,22 @@
         <v>30</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G64" s="4">
         <v>20040312</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I64" s="4" t="s">
         <v>13</v>
@@ -7083,16 +7077,16 @@
         <v>14</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N64" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O64" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="S64" s="4" t="s">
         <v>0</v>
@@ -7101,7 +7095,7 @@
         <v>1</v>
       </c>
       <c r="AD64" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:32" ht="85" x14ac:dyDescent="0.2">
@@ -7112,22 +7106,22 @@
         <v>1</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G65" s="4">
         <v>20040312</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I65" s="4" t="s">
         <v>13</v>
@@ -7136,16 +7130,16 @@
         <v>14</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O65" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="R65" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AF65" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="66" spans="1:32" ht="85" x14ac:dyDescent="0.2">
@@ -7156,22 +7150,22 @@
         <v>2</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G66" s="4">
         <v>20040312</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I66" s="4" t="s">
         <v>13</v>
@@ -7180,16 +7174,16 @@
         <v>14</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O66" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="R66" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AF66" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="67" spans="1:32" ht="85" x14ac:dyDescent="0.2">
@@ -7200,22 +7194,22 @@
         <v>3</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>185</v>
+        <v>23</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>183</v>
       </c>
       <c r="G67" s="4">
         <v>20040312</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I67" s="4" t="s">
         <v>13</v>
@@ -7224,19 +7218,19 @@
         <v>14</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O67" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="R67" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AB67" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AF67" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68" spans="1:32" ht="85" x14ac:dyDescent="0.2">
@@ -7247,22 +7241,22 @@
         <v>4</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G68" s="4">
         <v>20040312</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I68" s="4" t="s">
         <v>13</v>
@@ -7271,16 +7265,16 @@
         <v>14</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O68" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="R68" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AF68" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="69" spans="1:32" ht="85" x14ac:dyDescent="0.2">
@@ -7291,22 +7285,22 @@
         <v>5</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G69" s="4">
         <v>20040312</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I69" s="4" t="s">
         <v>13</v>
@@ -7315,16 +7309,16 @@
         <v>14</v>
       </c>
       <c r="K69" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O69" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="R69" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AF69" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="70" spans="1:32" ht="85" x14ac:dyDescent="0.2">
@@ -7335,22 +7329,22 @@
         <v>6</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G70" s="4">
         <v>20040312</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I70" s="4" t="s">
         <v>13</v>
@@ -7359,16 +7353,16 @@
         <v>14</v>
       </c>
       <c r="K70" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O70" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="R70" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AF70" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="71" spans="1:32" ht="85" x14ac:dyDescent="0.2">
@@ -7379,22 +7373,22 @@
         <v>7</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G71" s="4">
         <v>20040312</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I71" s="4" t="s">
         <v>13</v>
@@ -7403,16 +7397,16 @@
         <v>14</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O71" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="R71" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AF71" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="72" spans="1:32" ht="85" x14ac:dyDescent="0.2">
@@ -7423,22 +7417,22 @@
         <v>8</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G72" s="4">
         <v>20040312</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I72" s="4" t="s">
         <v>13</v>
@@ -7447,16 +7441,16 @@
         <v>14</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O72" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="R72" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AF72" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="73" spans="1:32" ht="85" x14ac:dyDescent="0.2">
@@ -7467,22 +7461,22 @@
         <v>9</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G73" s="4">
         <v>20040312</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I73" s="4" t="s">
         <v>13</v>
@@ -7491,19 +7485,19 @@
         <v>14</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O73" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="R73" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AB73" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AF73" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="74" spans="1:32" ht="85" x14ac:dyDescent="0.2">
@@ -7514,22 +7508,22 @@
         <v>10</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G74" s="4">
         <v>20040312</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I74" s="4" t="s">
         <v>13</v>
@@ -7538,16 +7532,16 @@
         <v>14</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O74" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="R74" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AF74" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="75" spans="1:32" ht="85" x14ac:dyDescent="0.2">
@@ -7558,22 +7552,22 @@
         <v>11</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G75" s="4">
         <v>20040312</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I75" s="4" t="s">
         <v>13</v>
@@ -7582,16 +7576,16 @@
         <v>14</v>
       </c>
       <c r="K75" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O75" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="R75" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AF75" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="76" spans="1:32" ht="85" x14ac:dyDescent="0.2">
@@ -7602,22 +7596,22 @@
         <v>12</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G76" s="4">
         <v>20040312</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I76" s="4" t="s">
         <v>13</v>
@@ -7626,16 +7620,16 @@
         <v>14</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O76" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="R76" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AF76" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="77" spans="1:32" ht="85" x14ac:dyDescent="0.2">
@@ -7646,22 +7640,22 @@
         <v>13</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G77" s="4">
         <v>20040312</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I77" s="4" t="s">
         <v>13</v>
@@ -7670,16 +7664,16 @@
         <v>14</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O77" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="R77" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AF77" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="78" spans="1:32" ht="85" x14ac:dyDescent="0.2">
@@ -7690,22 +7684,22 @@
         <v>14</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G78" s="4">
         <v>20040312</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I78" s="4" t="s">
         <v>13</v>
@@ -7714,16 +7708,16 @@
         <v>14</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O78" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="R78" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AF78" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="79" spans="1:32" ht="51" x14ac:dyDescent="0.2">
@@ -7734,22 +7728,22 @@
         <v>15</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G79" s="4">
         <v>20040312</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I79" s="4" t="s">
         <v>13</v>
@@ -7758,13 +7752,13 @@
         <v>14</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O79" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="R79" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="80" spans="1:32" ht="51" x14ac:dyDescent="0.2">
@@ -7775,22 +7769,22 @@
         <v>16</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G80" s="4">
         <v>20040312</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I80" s="4" t="s">
         <v>13</v>
@@ -7799,13 +7793,13 @@
         <v>14</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O80" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="R80" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="81" spans="1:32" ht="34" x14ac:dyDescent="0.2">
@@ -7816,22 +7810,22 @@
         <v>17</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G81" s="4">
         <v>20040312</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I81" s="4" t="s">
         <v>13</v>
@@ -7840,16 +7834,16 @@
         <v>14</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O81" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="R81" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AB81" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="82" spans="1:32" ht="34" x14ac:dyDescent="0.2">
@@ -7860,22 +7854,22 @@
         <v>18</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G82" s="4">
         <v>20040312</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I82" s="4" t="s">
         <v>13</v>
@@ -7884,13 +7878,13 @@
         <v>14</v>
       </c>
       <c r="K82" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O82" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="R82" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="83" spans="1:32" ht="51" x14ac:dyDescent="0.2">
@@ -7901,22 +7895,22 @@
         <v>1</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G83" s="4">
         <v>20040312</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I83" s="4" t="s">
         <v>13</v>
@@ -7925,13 +7919,13 @@
         <v>14</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O83" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="R83" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84" spans="1:32" ht="51" x14ac:dyDescent="0.2">
@@ -7942,22 +7936,22 @@
         <v>2</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G84" s="4">
         <v>20040312</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I84" s="4" t="s">
         <v>13</v>
@@ -7966,13 +7960,13 @@
         <v>14</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O84" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="R84" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="85" spans="1:32" ht="51" x14ac:dyDescent="0.2">
@@ -7983,22 +7977,22 @@
         <v>3</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D85" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F85" s="4" t="s">
         <v>215</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>217</v>
       </c>
       <c r="G85" s="4">
         <v>20040312</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I85" s="4" t="s">
         <v>13</v>
@@ -8007,13 +8001,13 @@
         <v>14</v>
       </c>
       <c r="K85" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O85" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="R85" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="86" spans="1:32" ht="51" x14ac:dyDescent="0.2">
@@ -8024,22 +8018,22 @@
         <v>4</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G86" s="4">
         <v>20040312</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I86" s="4" t="s">
         <v>13</v>
@@ -8048,13 +8042,13 @@
         <v>14</v>
       </c>
       <c r="K86" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O86" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="R86" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="87" spans="1:32" ht="34" x14ac:dyDescent="0.2">
@@ -8062,22 +8056,22 @@
         <v>5</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G87" s="4">
         <v>20040312</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I87" s="4" t="s">
         <v>13</v>
@@ -8086,13 +8080,13 @@
         <v>14</v>
       </c>
       <c r="K87" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O87" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="R87" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="88" spans="1:32" ht="34" x14ac:dyDescent="0.2">
@@ -8100,22 +8094,22 @@
         <v>5</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G88" s="4">
         <v>20040312</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I88" s="4" t="s">
         <v>13</v>
@@ -8124,13 +8118,13 @@
         <v>14</v>
       </c>
       <c r="K88" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O88" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="R88" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="89" spans="1:32" ht="51" x14ac:dyDescent="0.2">
@@ -8138,22 +8132,22 @@
         <v>5</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G89" s="4">
         <v>20040312</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I89" s="4" t="s">
         <v>13</v>
@@ -8162,13 +8156,13 @@
         <v>14</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O89" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="R89" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="90" spans="1:32" ht="34" x14ac:dyDescent="0.2">
@@ -8176,13 +8170,13 @@
         <v>5</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G90" s="4">
         <v>20040312</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="I90" s="4" t="s">
         <v>13</v>
@@ -8191,16 +8185,16 @@
         <v>14</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O90" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="R90" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF90" s="4" t="s">
         <v>227</v>
-      </c>
-      <c r="R90" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="AF90" s="4" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="91" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -8208,22 +8202,22 @@
         <v>5</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G91" s="4">
         <v>20040324</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I91" s="4" t="s">
         <v>13</v>
@@ -8232,10 +8226,10 @@
         <v>14</v>
       </c>
       <c r="K91" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="R91" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Y91" s="4">
         <v>0</v>
@@ -8246,22 +8240,22 @@
         <v>5</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G92" s="4">
         <v>20040324</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I92" s="4" t="s">
         <v>13</v>
@@ -8270,10 +8264,10 @@
         <v>14</v>
       </c>
       <c r="K92" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="R92" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Y92" s="4">
         <v>2</v>
@@ -8284,22 +8278,22 @@
         <v>5</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G93" s="4">
         <v>20040324</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I93" s="4" t="s">
         <v>13</v>
@@ -8308,10 +8302,10 @@
         <v>14</v>
       </c>
       <c r="K93" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="R93" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Y93" s="4">
         <v>2</v>
@@ -8322,22 +8316,22 @@
         <v>5</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G94" s="4">
         <v>20040324</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I94" s="4" t="s">
         <v>13</v>
@@ -8346,16 +8340,16 @@
         <v>14</v>
       </c>
       <c r="K94" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L94" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="R94" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AB94" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="95" spans="1:32" ht="17" x14ac:dyDescent="0.2">
@@ -8363,22 +8357,22 @@
         <v>5</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G95" s="4">
         <v>20040324</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I95" s="4" t="s">
         <v>13</v>
@@ -8387,10 +8381,10 @@
         <v>14</v>
       </c>
       <c r="K95" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="R95" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Y95" s="4">
         <v>0</v>
@@ -8401,22 +8395,22 @@
         <v>5</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G96" s="4">
         <v>20040324</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I96" s="4" t="s">
         <v>13</v>
@@ -8425,10 +8419,10 @@
         <v>14</v>
       </c>
       <c r="K96" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="R96" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Y96" s="4">
         <v>0</v>
@@ -8439,22 +8433,22 @@
         <v>5</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G97" s="4">
         <v>20040324</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I97" s="4" t="s">
         <v>13</v>
@@ -8463,10 +8457,10 @@
         <v>14</v>
       </c>
       <c r="K97" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="R97" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Y97" s="4">
         <v>0</v>
@@ -8477,22 +8471,22 @@
         <v>5</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G98" s="4">
         <v>20040324</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I98" s="4" t="s">
         <v>13</v>
@@ -8501,10 +8495,10 @@
         <v>14</v>
       </c>
       <c r="K98" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="R98" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Y98" s="4">
         <v>0</v>
@@ -8515,22 +8509,22 @@
         <v>5</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G99" s="4">
         <v>20040324</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I99" s="4" t="s">
         <v>13</v>
@@ -8539,10 +8533,10 @@
         <v>14</v>
       </c>
       <c r="K99" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="R99" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Y99" s="4">
         <v>1</v>
@@ -8553,22 +8547,22 @@
         <v>5</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G100" s="4">
         <v>20040324</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I100" s="4" t="s">
         <v>13</v>
@@ -8577,10 +8571,10 @@
         <v>14</v>
       </c>
       <c r="K100" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="R100" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Y100" s="4">
         <v>0</v>
@@ -8591,22 +8585,22 @@
         <v>5</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G101" s="4">
         <v>20040324</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I101" s="4" t="s">
         <v>13</v>
@@ -8615,10 +8609,10 @@
         <v>14</v>
       </c>
       <c r="K101" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="R101" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Y101" s="4">
         <v>1</v>
@@ -8629,22 +8623,22 @@
         <v>5</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G102" s="4">
         <v>20040324</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I102" s="4" t="s">
         <v>13</v>
@@ -8653,10 +8647,10 @@
         <v>14</v>
       </c>
       <c r="K102" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="R102" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Y102" s="4">
         <v>1</v>
